--- a/applications/us_states/Richmond_projections.xlsx
+++ b/applications/us_states/Richmond_projections.xlsx
@@ -1761,76 +1761,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>469</v>
+        <v>1514</v>
       </c>
       <c r="B4">
-        <v>251</v>
+        <v>755</v>
       </c>
       <c r="C4">
-        <v>1396</v>
+        <v>3782</v>
       </c>
       <c r="D4">
-        <v>0.1348689401379158</v>
+        <v>0.4351311517855365</v>
       </c>
       <c r="E4">
-        <v>0.07224608827409122</v>
+        <v>0.21693934737413</v>
       </c>
       <c r="F4">
-        <v>0.4010160605591704</v>
+        <v>1.086639768843159</v>
       </c>
       <c r="G4">
-        <v>0.09752503765031401</v>
+        <v>0.2839343084368877</v>
       </c>
       <c r="H4">
-        <v>0.05127605072336096</v>
+        <v>0.1693115086630193</v>
       </c>
       <c r="I4">
-        <v>0.263418142931776</v>
+        <v>0.5883192869191395</v>
       </c>
       <c r="J4">
-        <v>0.033667060150111</v>
+        <v>0.05008501004263715</v>
       </c>
       <c r="K4">
-        <v>0.03055956869516192</v>
+        <v>0.04377136262729483</v>
       </c>
       <c r="L4">
-        <v>0.03843511046900877</v>
+        <v>0.05954050530321716</v>
       </c>
       <c r="M4">
-        <v>209</v>
+        <v>1358</v>
       </c>
       <c r="N4">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="O4">
-        <v>1255</v>
+        <v>9616</v>
       </c>
       <c r="P4">
-        <v>0.06003750476852909</v>
+        <v>0.3902242472618302</v>
       </c>
       <c r="Q4">
-        <v>0.02427353661694118</v>
+        <v>0.04495631337930527</v>
       </c>
       <c r="R4">
-        <v>0.3606559197937237</v>
+        <v>2.762456194644846</v>
       </c>
       <c r="S4">
-        <v>0.04983974678153013</v>
+        <v>0.2401327834268144</v>
       </c>
       <c r="T4">
-        <v>0.01565571296595615</v>
+        <v>0.03573524207275128</v>
       </c>
       <c r="U4">
-        <v>0.2379093849248602</v>
+        <v>1.053583902365037</v>
       </c>
       <c r="V4">
-        <v>0.0358429648683886</v>
+        <v>0.05646842735825786</v>
       </c>
       <c r="W4">
-        <v>0.03200209662074069</v>
+        <v>0.04513372564220022</v>
       </c>
       <c r="X4">
-        <v>0.04495577715916698</v>
+        <v>0.1093592323901476</v>
       </c>
     </row>
   </sheetData>
@@ -2881,511 +2881,511 @@
         <v>347</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O3">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="P3">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="Q3">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="S3">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="T3">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="U3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="V3">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="W3">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="X3">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Y3">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Z3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AA3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AB3">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="AC3">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="AD3">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AE3">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AF3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="AG3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AH3">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AI3">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="AJ3">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AK3">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="AL3">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="AM3">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="AN3">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AO3">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="AP3">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="AQ3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AR3">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="AS3">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AT3">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="AU3">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="AV3">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="AW3">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="AX3">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="AY3">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AZ3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="BA3">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="BB3">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="BC3">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="BD3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="BE3">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="BF3">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="BG3">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="BH3">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="BI3">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="BJ3">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="BK3">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="BL3">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="BM3">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="BN3">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="BO3">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="BP3">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="BQ3">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="BR3">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="BS3">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="BT3">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="BU3">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="BV3">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="BW3">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="BX3">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="BY3">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="BZ3">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="CA3">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="CB3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="CC3">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="CD3">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="CE3">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="CF3">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="CG3">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="CH3">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="CI3">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="CJ3">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="CK3">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="CL3">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="CM3">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="CN3">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="CO3">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="CP3">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="CQ3">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="CR3">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="CS3">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="CT3">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="CU3">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="CV3">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="CW3">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="CX3">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="CY3">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="CZ3">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="DA3">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="DB3">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="DC3">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="DD3">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="DE3">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="DF3">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="DG3">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="DH3">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="DI3">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="DJ3">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="DK3">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="DL3">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="DM3">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="DN3">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="DO3">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="DP3">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="DQ3">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="DR3">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="DS3">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="DT3">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="DU3">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="DV3">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="DW3">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="DX3">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="DY3">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="DZ3">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="EA3">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="EB3">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="EC3">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="ED3">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="EE3">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="EF3">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="EG3">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="EH3">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="EI3">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="EJ3">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="EK3">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="EL3">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="EM3">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="EN3">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="EO3">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="EP3">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="EQ3">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="ER3">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="ES3">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="ET3">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="EU3">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="EV3">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="EW3">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="EX3">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="EY3">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="EZ3">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="FA3">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="FB3">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="FC3">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="FD3">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="FE3">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="FF3">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="FG3">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="FH3">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="FI3">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="FJ3">
-        <v>33</v>
+        <v>308</v>
       </c>
       <c r="FK3">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="FL3">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="FM3">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="FN3">
-        <v>27</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:171">
@@ -3393,511 +3393,511 @@
         <v>348</v>
       </c>
       <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>57</v>
+      </c>
+      <c r="J4">
+        <v>59</v>
+      </c>
+      <c r="K4">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>57</v>
+      </c>
+      <c r="O4">
+        <v>54</v>
+      </c>
+      <c r="P4">
+        <v>47</v>
+      </c>
+      <c r="Q4">
+        <v>49</v>
+      </c>
+      <c r="R4">
+        <v>52</v>
+      </c>
+      <c r="S4">
+        <v>46</v>
+      </c>
+      <c r="T4">
+        <v>51</v>
+      </c>
+      <c r="U4">
+        <v>50</v>
+      </c>
+      <c r="V4">
+        <v>49</v>
+      </c>
+      <c r="W4">
+        <v>46</v>
+      </c>
+      <c r="X4">
+        <v>42</v>
+      </c>
+      <c r="Y4">
+        <v>52</v>
+      </c>
+      <c r="Z4">
+        <v>46</v>
+      </c>
+      <c r="AA4">
+        <v>50</v>
+      </c>
+      <c r="AB4">
+        <v>42</v>
+      </c>
+      <c r="AC4">
+        <v>33</v>
+      </c>
+      <c r="AD4">
+        <v>37</v>
+      </c>
+      <c r="AE4">
+        <v>39</v>
+      </c>
+      <c r="AF4">
+        <v>45</v>
+      </c>
+      <c r="AG4">
+        <v>47</v>
+      </c>
+      <c r="AH4">
+        <v>45</v>
+      </c>
+      <c r="AI4">
+        <v>35</v>
+      </c>
+      <c r="AJ4">
+        <v>41</v>
+      </c>
+      <c r="AK4">
+        <v>51</v>
+      </c>
+      <c r="AL4">
+        <v>41</v>
+      </c>
+      <c r="AM4">
+        <v>39</v>
+      </c>
+      <c r="AN4">
+        <v>39</v>
+      </c>
+      <c r="AO4">
+        <v>49</v>
+      </c>
+      <c r="AP4">
+        <v>44</v>
+      </c>
+      <c r="AQ4">
+        <v>39</v>
+      </c>
+      <c r="AR4">
+        <v>36</v>
+      </c>
+      <c r="AS4">
+        <v>43</v>
+      </c>
+      <c r="AT4">
+        <v>43</v>
+      </c>
+      <c r="AU4">
+        <v>43</v>
+      </c>
+      <c r="AV4">
+        <v>37</v>
+      </c>
+      <c r="AW4">
+        <v>39</v>
+      </c>
+      <c r="AX4">
+        <v>34</v>
+      </c>
+      <c r="AY4">
+        <v>43</v>
+      </c>
+      <c r="AZ4">
+        <v>41</v>
+      </c>
+      <c r="BA4">
+        <v>43</v>
+      </c>
+      <c r="BB4">
+        <v>37</v>
+      </c>
+      <c r="BC4">
+        <v>41</v>
+      </c>
+      <c r="BD4">
+        <v>43</v>
+      </c>
+      <c r="BE4">
+        <v>45</v>
+      </c>
+      <c r="BF4">
+        <v>41</v>
+      </c>
+      <c r="BG4">
+        <v>38</v>
+      </c>
+      <c r="BH4">
+        <v>40</v>
+      </c>
+      <c r="BI4">
+        <v>40</v>
+      </c>
+      <c r="BJ4">
+        <v>36</v>
+      </c>
+      <c r="BK4">
+        <v>36</v>
+      </c>
+      <c r="BL4">
+        <v>32</v>
+      </c>
+      <c r="BM4">
+        <v>39</v>
+      </c>
+      <c r="BN4">
+        <v>31</v>
+      </c>
+      <c r="BO4">
+        <v>32</v>
+      </c>
+      <c r="BP4">
+        <v>33</v>
+      </c>
+      <c r="BQ4">
+        <v>31</v>
+      </c>
+      <c r="BR4">
+        <v>37</v>
+      </c>
+      <c r="BS4">
+        <v>34</v>
+      </c>
+      <c r="BT4">
+        <v>36</v>
+      </c>
+      <c r="BU4">
+        <v>27</v>
+      </c>
+      <c r="BV4">
+        <v>35</v>
+      </c>
+      <c r="BW4">
+        <v>30</v>
+      </c>
+      <c r="BX4">
+        <v>34</v>
+      </c>
+      <c r="BY4">
+        <v>35</v>
+      </c>
+      <c r="BZ4">
+        <v>32</v>
+      </c>
+      <c r="CA4">
+        <v>36</v>
+      </c>
+      <c r="CB4">
+        <v>34</v>
+      </c>
+      <c r="CC4">
+        <v>34</v>
+      </c>
+      <c r="CD4">
+        <v>37</v>
+      </c>
+      <c r="CE4">
+        <v>30</v>
+      </c>
+      <c r="CF4">
+        <v>28</v>
+      </c>
+      <c r="CG4">
+        <v>33</v>
+      </c>
+      <c r="CH4">
+        <v>34</v>
+      </c>
+      <c r="CI4">
+        <v>27</v>
+      </c>
+      <c r="CJ4">
+        <v>31</v>
+      </c>
+      <c r="CK4">
+        <v>30</v>
+      </c>
+      <c r="CL4">
+        <v>36</v>
+      </c>
+      <c r="CM4">
+        <v>32</v>
+      </c>
+      <c r="CN4">
+        <v>32</v>
+      </c>
+      <c r="CO4">
+        <v>33</v>
+      </c>
+      <c r="CP4">
+        <v>34</v>
+      </c>
+      <c r="CQ4">
+        <v>33</v>
+      </c>
+      <c r="CR4">
         <v>29</v>
       </c>
-      <c r="C4">
+      <c r="CS4">
         <v>27</v>
       </c>
-      <c r="D4">
+      <c r="CT4">
+        <v>35</v>
+      </c>
+      <c r="CU4">
+        <v>29</v>
+      </c>
+      <c r="CV4">
+        <v>36</v>
+      </c>
+      <c r="CW4">
+        <v>32</v>
+      </c>
+      <c r="CX4">
+        <v>34</v>
+      </c>
+      <c r="CY4">
+        <v>33</v>
+      </c>
+      <c r="CZ4">
+        <v>34</v>
+      </c>
+      <c r="DA4">
+        <v>31</v>
+      </c>
+      <c r="DB4">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="DC4">
+        <v>29</v>
+      </c>
+      <c r="DD4">
+        <v>39</v>
+      </c>
+      <c r="DE4">
+        <v>29</v>
+      </c>
+      <c r="DF4">
+        <v>31</v>
+      </c>
+      <c r="DG4">
+        <v>35</v>
+      </c>
+      <c r="DH4">
+        <v>32</v>
+      </c>
+      <c r="DI4">
+        <v>36</v>
+      </c>
+      <c r="DJ4">
+        <v>31</v>
+      </c>
+      <c r="DK4">
+        <v>41</v>
+      </c>
+      <c r="DL4">
+        <v>32</v>
+      </c>
+      <c r="DM4">
+        <v>33</v>
+      </c>
+      <c r="DN4">
+        <v>28</v>
+      </c>
+      <c r="DO4">
+        <v>32</v>
+      </c>
+      <c r="DP4">
+        <v>34</v>
+      </c>
+      <c r="DQ4">
+        <v>26</v>
+      </c>
+      <c r="DR4">
+        <v>32</v>
+      </c>
+      <c r="DS4">
+        <v>33</v>
+      </c>
+      <c r="DT4">
+        <v>30</v>
+      </c>
+      <c r="DU4">
+        <v>26</v>
+      </c>
+      <c r="DV4">
+        <v>31</v>
+      </c>
+      <c r="DW4">
+        <v>34</v>
+      </c>
+      <c r="DX4">
+        <v>36</v>
+      </c>
+      <c r="DY4">
+        <v>28</v>
+      </c>
+      <c r="DZ4">
+        <v>32</v>
+      </c>
+      <c r="EA4">
+        <v>38</v>
+      </c>
+      <c r="EB4">
+        <v>30</v>
+      </c>
+      <c r="EC4">
+        <v>34</v>
+      </c>
+      <c r="ED4">
+        <v>42</v>
+      </c>
+      <c r="EE4">
+        <v>34</v>
+      </c>
+      <c r="EF4">
+        <v>27</v>
+      </c>
+      <c r="EG4">
+        <v>28</v>
+      </c>
+      <c r="EH4">
+        <v>34</v>
+      </c>
+      <c r="EI4">
+        <v>34</v>
+      </c>
+      <c r="EJ4">
+        <v>27</v>
+      </c>
+      <c r="EK4">
+        <v>29</v>
+      </c>
+      <c r="EL4">
+        <v>26</v>
+      </c>
+      <c r="EM4">
+        <v>25</v>
+      </c>
+      <c r="EN4">
+        <v>30</v>
+      </c>
+      <c r="EO4">
+        <v>34</v>
+      </c>
+      <c r="EP4">
+        <v>27</v>
+      </c>
+      <c r="EQ4">
+        <v>33</v>
+      </c>
+      <c r="ER4">
+        <v>28</v>
+      </c>
+      <c r="ES4">
+        <v>30</v>
+      </c>
+      <c r="ET4">
+        <v>29</v>
+      </c>
+      <c r="EU4">
+        <v>24</v>
+      </c>
+      <c r="EV4">
+        <v>30</v>
+      </c>
+      <c r="EW4">
+        <v>29</v>
+      </c>
+      <c r="EX4">
+        <v>32</v>
+      </c>
+      <c r="EY4">
+        <v>27</v>
+      </c>
+      <c r="EZ4">
+        <v>26</v>
+      </c>
+      <c r="FA4">
+        <v>23</v>
+      </c>
+      <c r="FB4">
+        <v>25</v>
+      </c>
+      <c r="FC4">
+        <v>28</v>
+      </c>
+      <c r="FD4">
+        <v>24</v>
+      </c>
+      <c r="FE4">
+        <v>30</v>
+      </c>
+      <c r="FF4">
+        <v>27</v>
+      </c>
+      <c r="FG4">
+        <v>26</v>
+      </c>
+      <c r="FH4">
+        <v>26</v>
+      </c>
+      <c r="FI4">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="FJ4">
+        <v>38</v>
+      </c>
+      <c r="FK4">
+        <v>23</v>
+      </c>
+      <c r="FL4">
+        <v>25</v>
+      </c>
+      <c r="FM4">
         <v>24</v>
       </c>
-      <c r="G4">
-        <v>28</v>
-      </c>
-      <c r="H4">
+      <c r="FN4">
         <v>25</v>
-      </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>25</v>
-      </c>
-      <c r="L4">
-        <v>21</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>22</v>
-      </c>
-      <c r="P4">
-        <v>17</v>
-      </c>
-      <c r="Q4">
-        <v>21</v>
-      </c>
-      <c r="R4">
-        <v>20</v>
-      </c>
-      <c r="S4">
-        <v>23</v>
-      </c>
-      <c r="T4">
-        <v>22</v>
-      </c>
-      <c r="U4">
-        <v>21</v>
-      </c>
-      <c r="V4">
-        <v>18</v>
-      </c>
-      <c r="W4">
-        <v>21</v>
-      </c>
-      <c r="X4">
-        <v>20</v>
-      </c>
-      <c r="Y4">
-        <v>21</v>
-      </c>
-      <c r="Z4">
-        <v>18</v>
-      </c>
-      <c r="AA4">
-        <v>18</v>
-      </c>
-      <c r="AB4">
-        <v>22</v>
-      </c>
-      <c r="AC4">
-        <v>17</v>
-      </c>
-      <c r="AD4">
-        <v>19</v>
-      </c>
-      <c r="AE4">
-        <v>18</v>
-      </c>
-      <c r="AF4">
-        <v>18</v>
-      </c>
-      <c r="AG4">
-        <v>22</v>
-      </c>
-      <c r="AH4">
-        <v>15</v>
-      </c>
-      <c r="AI4">
-        <v>17</v>
-      </c>
-      <c r="AJ4">
-        <v>18</v>
-      </c>
-      <c r="AK4">
-        <v>16</v>
-      </c>
-      <c r="AL4">
-        <v>23</v>
-      </c>
-      <c r="AM4">
-        <v>14</v>
-      </c>
-      <c r="AN4">
-        <v>14</v>
-      </c>
-      <c r="AO4">
-        <v>20</v>
-      </c>
-      <c r="AP4">
-        <v>13</v>
-      </c>
-      <c r="AQ4">
-        <v>14</v>
-      </c>
-      <c r="AR4">
-        <v>15</v>
-      </c>
-      <c r="AS4">
-        <v>16</v>
-      </c>
-      <c r="AT4">
-        <v>14</v>
-      </c>
-      <c r="AU4">
-        <v>15</v>
-      </c>
-      <c r="AV4">
-        <v>16</v>
-      </c>
-      <c r="AW4">
-        <v>17</v>
-      </c>
-      <c r="AX4">
-        <v>16</v>
-      </c>
-      <c r="AY4">
-        <v>15</v>
-      </c>
-      <c r="AZ4">
-        <v>18</v>
-      </c>
-      <c r="BA4">
-        <v>16</v>
-      </c>
-      <c r="BB4">
-        <v>18</v>
-      </c>
-      <c r="BC4">
-        <v>17</v>
-      </c>
-      <c r="BD4">
-        <v>13</v>
-      </c>
-      <c r="BE4">
-        <v>15</v>
-      </c>
-      <c r="BF4">
-        <v>12</v>
-      </c>
-      <c r="BG4">
-        <v>10</v>
-      </c>
-      <c r="BH4">
-        <v>15</v>
-      </c>
-      <c r="BI4">
-        <v>16</v>
-      </c>
-      <c r="BJ4">
-        <v>15</v>
-      </c>
-      <c r="BK4">
-        <v>17</v>
-      </c>
-      <c r="BL4">
-        <v>14</v>
-      </c>
-      <c r="BM4">
-        <v>11</v>
-      </c>
-      <c r="BN4">
-        <v>14</v>
-      </c>
-      <c r="BO4">
-        <v>17</v>
-      </c>
-      <c r="BP4">
-        <v>12</v>
-      </c>
-      <c r="BQ4">
-        <v>11</v>
-      </c>
-      <c r="BR4">
-        <v>11</v>
-      </c>
-      <c r="BS4">
-        <v>10</v>
-      </c>
-      <c r="BT4">
-        <v>7</v>
-      </c>
-      <c r="BU4">
-        <v>14</v>
-      </c>
-      <c r="BV4">
-        <v>10</v>
-      </c>
-      <c r="BW4">
-        <v>10</v>
-      </c>
-      <c r="BX4">
-        <v>10</v>
-      </c>
-      <c r="BY4">
-        <v>7</v>
-      </c>
-      <c r="BZ4">
-        <v>11</v>
-      </c>
-      <c r="CA4">
-        <v>9</v>
-      </c>
-      <c r="CB4">
-        <v>11</v>
-      </c>
-      <c r="CC4">
-        <v>8</v>
-      </c>
-      <c r="CD4">
-        <v>10</v>
-      </c>
-      <c r="CE4">
-        <v>8</v>
-      </c>
-      <c r="CF4">
-        <v>12</v>
-      </c>
-      <c r="CG4">
-        <v>11</v>
-      </c>
-      <c r="CH4">
-        <v>9</v>
-      </c>
-      <c r="CI4">
-        <v>9</v>
-      </c>
-      <c r="CJ4">
-        <v>14</v>
-      </c>
-      <c r="CK4">
-        <v>7</v>
-      </c>
-      <c r="CL4">
-        <v>9</v>
-      </c>
-      <c r="CM4">
-        <v>7</v>
-      </c>
-      <c r="CN4">
-        <v>9</v>
-      </c>
-      <c r="CO4">
-        <v>10</v>
-      </c>
-      <c r="CP4">
-        <v>11</v>
-      </c>
-      <c r="CQ4">
-        <v>10</v>
-      </c>
-      <c r="CR4">
-        <v>8</v>
-      </c>
-      <c r="CS4">
-        <v>8</v>
-      </c>
-      <c r="CT4">
-        <v>11</v>
-      </c>
-      <c r="CU4">
-        <v>9</v>
-      </c>
-      <c r="CV4">
-        <v>9</v>
-      </c>
-      <c r="CW4">
-        <v>10</v>
-      </c>
-      <c r="CX4">
-        <v>6</v>
-      </c>
-      <c r="CY4">
-        <v>7</v>
-      </c>
-      <c r="CZ4">
-        <v>9</v>
-      </c>
-      <c r="DA4">
-        <v>8</v>
-      </c>
-      <c r="DB4">
-        <v>12</v>
-      </c>
-      <c r="DC4">
-        <v>9</v>
-      </c>
-      <c r="DD4">
-        <v>7</v>
-      </c>
-      <c r="DE4">
-        <v>8</v>
-      </c>
-      <c r="DF4">
-        <v>9</v>
-      </c>
-      <c r="DG4">
-        <v>6</v>
-      </c>
-      <c r="DH4">
-        <v>7</v>
-      </c>
-      <c r="DI4">
-        <v>9</v>
-      </c>
-      <c r="DJ4">
-        <v>8</v>
-      </c>
-      <c r="DK4">
-        <v>10</v>
-      </c>
-      <c r="DL4">
-        <v>5</v>
-      </c>
-      <c r="DM4">
-        <v>8</v>
-      </c>
-      <c r="DN4">
-        <v>10</v>
-      </c>
-      <c r="DO4">
-        <v>9</v>
-      </c>
-      <c r="DP4">
-        <v>7</v>
-      </c>
-      <c r="DQ4">
-        <v>9</v>
-      </c>
-      <c r="DR4">
-        <v>5</v>
-      </c>
-      <c r="DS4">
-        <v>10</v>
-      </c>
-      <c r="DT4">
-        <v>10</v>
-      </c>
-      <c r="DU4">
-        <v>6</v>
-      </c>
-      <c r="DV4">
-        <v>8</v>
-      </c>
-      <c r="DW4">
-        <v>10</v>
-      </c>
-      <c r="DX4">
-        <v>4</v>
-      </c>
-      <c r="DY4">
-        <v>6</v>
-      </c>
-      <c r="DZ4">
-        <v>5</v>
-      </c>
-      <c r="EA4">
-        <v>5</v>
-      </c>
-      <c r="EB4">
-        <v>3</v>
-      </c>
-      <c r="EC4">
-        <v>7</v>
-      </c>
-      <c r="ED4">
-        <v>3</v>
-      </c>
-      <c r="EE4">
-        <v>3</v>
-      </c>
-      <c r="EF4">
-        <v>6</v>
-      </c>
-      <c r="EG4">
-        <v>5</v>
-      </c>
-      <c r="EH4">
-        <v>5</v>
-      </c>
-      <c r="EI4">
-        <v>5</v>
-      </c>
-      <c r="EJ4">
-        <v>2</v>
-      </c>
-      <c r="EK4">
-        <v>5</v>
-      </c>
-      <c r="EL4">
-        <v>5</v>
-      </c>
-      <c r="EM4">
-        <v>9</v>
-      </c>
-      <c r="EN4">
-        <v>5</v>
-      </c>
-      <c r="EO4">
-        <v>6</v>
-      </c>
-      <c r="EP4">
-        <v>4</v>
-      </c>
-      <c r="EQ4">
-        <v>5</v>
-      </c>
-      <c r="ER4">
-        <v>6</v>
-      </c>
-      <c r="ES4">
-        <v>4</v>
-      </c>
-      <c r="ET4">
-        <v>4</v>
-      </c>
-      <c r="EU4">
-        <v>3</v>
-      </c>
-      <c r="EV4">
-        <v>5</v>
-      </c>
-      <c r="EW4">
-        <v>6</v>
-      </c>
-      <c r="EX4">
-        <v>2</v>
-      </c>
-      <c r="EY4">
-        <v>2</v>
-      </c>
-      <c r="EZ4">
-        <v>6</v>
-      </c>
-      <c r="FA4">
-        <v>3</v>
-      </c>
-      <c r="FB4">
-        <v>5</v>
-      </c>
-      <c r="FC4">
-        <v>1</v>
-      </c>
-      <c r="FD4">
-        <v>2</v>
-      </c>
-      <c r="FE4">
-        <v>4</v>
-      </c>
-      <c r="FF4">
-        <v>3</v>
-      </c>
-      <c r="FG4">
-        <v>4</v>
-      </c>
-      <c r="FH4">
-        <v>2</v>
-      </c>
-      <c r="FI4">
-        <v>5</v>
-      </c>
-      <c r="FJ4">
-        <v>1</v>
-      </c>
-      <c r="FK4">
-        <v>2</v>
-      </c>
-      <c r="FL4">
-        <v>3</v>
-      </c>
-      <c r="FM4">
-        <v>2</v>
-      </c>
-      <c r="FN4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:171">
@@ -3905,511 +3905,511 @@
         <v>349</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>57</v>
+      </c>
+      <c r="J5">
+        <v>59</v>
+      </c>
+      <c r="K5">
+        <v>53</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>57</v>
+      </c>
+      <c r="O5">
+        <v>54</v>
+      </c>
+      <c r="P5">
+        <v>47</v>
+      </c>
+      <c r="Q5">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>52</v>
+      </c>
+      <c r="S5">
+        <v>46</v>
+      </c>
+      <c r="T5">
+        <v>51</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+      <c r="V5">
+        <v>49</v>
+      </c>
+      <c r="W5">
+        <v>46</v>
+      </c>
+      <c r="X5">
+        <v>42</v>
+      </c>
+      <c r="Y5">
+        <v>52</v>
+      </c>
+      <c r="Z5">
+        <v>46</v>
+      </c>
+      <c r="AA5">
+        <v>50</v>
+      </c>
+      <c r="AB5">
+        <v>42</v>
+      </c>
+      <c r="AC5">
+        <v>33</v>
+      </c>
+      <c r="AD5">
+        <v>37</v>
+      </c>
+      <c r="AE5">
+        <v>39</v>
+      </c>
+      <c r="AF5">
+        <v>45</v>
+      </c>
+      <c r="AG5">
+        <v>42</v>
+      </c>
+      <c r="AH5">
+        <v>43</v>
+      </c>
+      <c r="AI5">
+        <v>34</v>
+      </c>
+      <c r="AJ5">
+        <v>34</v>
+      </c>
+      <c r="AK5">
+        <v>36</v>
+      </c>
+      <c r="AL5">
+        <v>35</v>
+      </c>
+      <c r="AM5">
+        <v>35</v>
+      </c>
+      <c r="AN5">
+        <v>31</v>
+      </c>
+      <c r="AO5">
+        <v>34</v>
+      </c>
+      <c r="AP5">
+        <v>34</v>
+      </c>
+      <c r="AQ5">
+        <v>35</v>
+      </c>
+      <c r="AR5">
+        <v>30</v>
+      </c>
+      <c r="AS5">
+        <v>33</v>
+      </c>
+      <c r="AT5">
         <v>25</v>
       </c>
-      <c r="I5">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>25</v>
-      </c>
-      <c r="L5">
-        <v>21</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>24</v>
-      </c>
-      <c r="O5">
-        <v>22</v>
-      </c>
-      <c r="P5">
-        <v>17</v>
-      </c>
-      <c r="Q5">
-        <v>21</v>
-      </c>
-      <c r="R5">
-        <v>20</v>
-      </c>
-      <c r="S5">
-        <v>23</v>
-      </c>
-      <c r="T5">
-        <v>22</v>
-      </c>
-      <c r="U5">
-        <v>21</v>
-      </c>
-      <c r="V5">
-        <v>18</v>
-      </c>
-      <c r="W5">
-        <v>21</v>
-      </c>
-      <c r="X5">
-        <v>20</v>
-      </c>
-      <c r="Y5">
-        <v>21</v>
-      </c>
-      <c r="Z5">
-        <v>18</v>
-      </c>
-      <c r="AA5">
-        <v>18</v>
-      </c>
-      <c r="AB5">
-        <v>22</v>
-      </c>
-      <c r="AC5">
-        <v>17</v>
-      </c>
-      <c r="AD5">
-        <v>19</v>
-      </c>
-      <c r="AE5">
-        <v>18</v>
-      </c>
-      <c r="AF5">
-        <v>18</v>
-      </c>
-      <c r="AG5">
-        <v>19</v>
-      </c>
-      <c r="AH5">
-        <v>13</v>
-      </c>
-      <c r="AI5">
-        <v>15</v>
-      </c>
-      <c r="AJ5">
-        <v>16</v>
-      </c>
-      <c r="AK5">
-        <v>18</v>
-      </c>
-      <c r="AL5">
-        <v>15</v>
-      </c>
-      <c r="AM5">
-        <v>10</v>
-      </c>
-      <c r="AN5">
-        <v>10</v>
-      </c>
-      <c r="AO5">
-        <v>11</v>
-      </c>
-      <c r="AP5">
-        <v>8</v>
-      </c>
-      <c r="AQ5">
-        <v>12</v>
-      </c>
-      <c r="AR5">
-        <v>10</v>
-      </c>
-      <c r="AS5">
-        <v>11</v>
-      </c>
-      <c r="AT5">
-        <v>7</v>
-      </c>
       <c r="AU5">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AV5">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AW5">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AX5">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AY5">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="BA5">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="BB5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="BC5">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="BD5">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="BE5">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="BF5">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="BG5">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="BH5">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="BI5">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="BJ5">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="BK5">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="BL5">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="BM5">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="BN5">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="BO5">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="BP5">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="BQ5">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="BR5">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="BS5">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="BT5">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="BU5">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="BV5">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="BW5">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="BX5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="BY5">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="BZ5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="CA5">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="CB5">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="CC5">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="CD5">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="CE5">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="CF5">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="CG5">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="CH5">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="CI5">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="CJ5">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="CK5">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="CL5">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="CM5">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="CN5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="CO5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="CP5">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="CQ5">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="CR5">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="CS5">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="CT5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="CU5">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="CV5">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="CW5">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="CX5">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="CY5">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="CZ5">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="DA5">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="DB5">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="DC5">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="DD5">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="DE5">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="DF5">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="DG5">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="DH5">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="DI5">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="DJ5">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="DK5">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="DL5">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="DM5">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="DN5">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="DO5">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="DP5">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="DQ5">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="DR5">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="DS5">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="DT5">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="DU5">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="DV5">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="DW5">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="DX5">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="DY5">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="DZ5">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="EA5">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="EB5">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="EC5">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="ED5">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="EE5">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="EF5">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="EG5">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="EH5">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="EI5">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="EJ5">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="EK5">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="EL5">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="EM5">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="EN5">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="EO5">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="EP5">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="EQ5">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="ER5">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="ES5">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="ET5">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="EU5">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="EV5">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="EW5">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="EX5">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="EY5">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="EZ5">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="FA5">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="FB5">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="FC5">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="FD5">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="FE5">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="FF5">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="FG5">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="FH5">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="FI5">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="FJ5">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="FK5">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="FL5">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="FM5">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="FN5">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:171">
@@ -4417,511 +4417,511 @@
         <v>350</v>
       </c>
       <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <v>56</v>
+      </c>
+      <c r="M6">
+        <v>61</v>
+      </c>
+      <c r="N6">
+        <v>57</v>
+      </c>
+      <c r="O6">
+        <v>54</v>
+      </c>
+      <c r="P6">
+        <v>47</v>
+      </c>
+      <c r="Q6">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>52</v>
+      </c>
+      <c r="S6">
+        <v>46</v>
+      </c>
+      <c r="T6">
+        <v>51</v>
+      </c>
+      <c r="U6">
+        <v>50</v>
+      </c>
+      <c r="V6">
+        <v>49</v>
+      </c>
+      <c r="W6">
+        <v>46</v>
+      </c>
+      <c r="X6">
+        <v>42</v>
+      </c>
+      <c r="Y6">
+        <v>52</v>
+      </c>
+      <c r="Z6">
+        <v>46</v>
+      </c>
+      <c r="AA6">
+        <v>50</v>
+      </c>
+      <c r="AB6">
+        <v>42</v>
+      </c>
+      <c r="AC6">
+        <v>33</v>
+      </c>
+      <c r="AD6">
+        <v>37</v>
+      </c>
+      <c r="AE6">
+        <v>39</v>
+      </c>
+      <c r="AF6">
+        <v>45</v>
+      </c>
+      <c r="AG6">
+        <v>42</v>
+      </c>
+      <c r="AH6">
+        <v>43</v>
+      </c>
+      <c r="AI6">
+        <v>34</v>
+      </c>
+      <c r="AJ6">
+        <v>34</v>
+      </c>
+      <c r="AK6">
+        <v>36</v>
+      </c>
+      <c r="AL6">
+        <v>35</v>
+      </c>
+      <c r="AM6">
+        <v>35</v>
+      </c>
+      <c r="AN6">
+        <v>31</v>
+      </c>
+      <c r="AO6">
+        <v>34</v>
+      </c>
+      <c r="AP6">
+        <v>34</v>
+      </c>
+      <c r="AQ6">
+        <v>35</v>
+      </c>
+      <c r="AR6">
+        <v>30</v>
+      </c>
+      <c r="AS6">
+        <v>33</v>
+      </c>
+      <c r="AT6">
+        <v>25</v>
+      </c>
+      <c r="AU6">
+        <v>32</v>
+      </c>
+      <c r="AV6">
+        <v>34</v>
+      </c>
+      <c r="AW6">
+        <v>37</v>
+      </c>
+      <c r="AX6">
+        <v>31</v>
+      </c>
+      <c r="AY6">
+        <v>26</v>
+      </c>
+      <c r="AZ6">
+        <v>33</v>
+      </c>
+      <c r="BA6">
+        <v>30</v>
+      </c>
+      <c r="BB6">
+        <v>33</v>
+      </c>
+      <c r="BC6">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="BD6">
+        <v>31</v>
+      </c>
+      <c r="BE6">
+        <v>30</v>
+      </c>
+      <c r="BF6">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="BG6">
+        <v>32</v>
+      </c>
+      <c r="BH6">
+        <v>28</v>
+      </c>
+      <c r="BI6">
+        <v>31</v>
+      </c>
+      <c r="BJ6">
+        <v>34</v>
+      </c>
+      <c r="BK6">
+        <v>28</v>
+      </c>
+      <c r="BL6">
+        <v>31</v>
+      </c>
+      <c r="BM6">
+        <v>29</v>
+      </c>
+      <c r="BN6">
+        <v>31</v>
+      </c>
+      <c r="BO6">
+        <v>32</v>
+      </c>
+      <c r="BP6">
+        <v>29</v>
+      </c>
+      <c r="BQ6">
+        <v>34</v>
+      </c>
+      <c r="BR6">
+        <v>33</v>
+      </c>
+      <c r="BS6">
+        <v>33</v>
+      </c>
+      <c r="BT6">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="BU6">
+        <v>32</v>
+      </c>
+      <c r="BV6">
+        <v>32</v>
+      </c>
+      <c r="BW6">
+        <v>34</v>
+      </c>
+      <c r="BX6">
+        <v>26</v>
+      </c>
+      <c r="BY6">
+        <v>35</v>
+      </c>
+      <c r="BZ6">
+        <v>30</v>
+      </c>
+      <c r="CA6">
+        <v>38</v>
+      </c>
+      <c r="CB6">
+        <v>33</v>
+      </c>
+      <c r="CC6">
+        <v>30</v>
+      </c>
+      <c r="CD6">
+        <v>36</v>
+      </c>
+      <c r="CE6">
+        <v>31</v>
+      </c>
+      <c r="CF6">
+        <v>33</v>
+      </c>
+      <c r="CG6">
+        <v>31</v>
+      </c>
+      <c r="CH6">
+        <v>34</v>
+      </c>
+      <c r="CI6">
+        <v>31</v>
+      </c>
+      <c r="CJ6">
+        <v>28</v>
+      </c>
+      <c r="CK6">
+        <v>34</v>
+      </c>
+      <c r="CL6">
+        <v>32</v>
+      </c>
+      <c r="CM6">
+        <v>33</v>
+      </c>
+      <c r="CN6">
+        <v>27</v>
+      </c>
+      <c r="CO6">
+        <v>28</v>
+      </c>
+      <c r="CP6">
+        <v>26</v>
+      </c>
+      <c r="CQ6">
+        <v>26</v>
+      </c>
+      <c r="CR6">
+        <v>28</v>
+      </c>
+      <c r="CS6">
+        <v>22</v>
+      </c>
+      <c r="CT6">
+        <v>27</v>
+      </c>
+      <c r="CU6">
+        <v>20</v>
+      </c>
+      <c r="CV6">
+        <v>26</v>
+      </c>
+      <c r="CW6">
+        <v>29</v>
+      </c>
+      <c r="CX6">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="CY6">
         <v>24</v>
       </c>
-      <c r="G6">
-        <v>28</v>
-      </c>
-      <c r="H6">
+      <c r="CZ6">
+        <v>26</v>
+      </c>
+      <c r="DA6">
+        <v>27</v>
+      </c>
+      <c r="DB6">
+        <v>26</v>
+      </c>
+      <c r="DC6">
         <v>25</v>
       </c>
-      <c r="I6">
-        <v>23</v>
-      </c>
-      <c r="J6">
+      <c r="DD6">
+        <v>22</v>
+      </c>
+      <c r="DE6">
+        <v>21</v>
+      </c>
+      <c r="DF6">
+        <v>19</v>
+      </c>
+      <c r="DG6">
+        <v>29</v>
+      </c>
+      <c r="DH6">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="DI6">
+        <v>27</v>
+      </c>
+      <c r="DJ6">
+        <v>17</v>
+      </c>
+      <c r="DK6">
+        <v>21</v>
+      </c>
+      <c r="DL6">
+        <v>27</v>
+      </c>
+      <c r="DM6">
+        <v>19</v>
+      </c>
+      <c r="DN6">
         <v>25</v>
       </c>
-      <c r="L6">
+      <c r="DO6">
+        <v>19</v>
+      </c>
+      <c r="DP6">
+        <v>19</v>
+      </c>
+      <c r="DQ6">
+        <v>20</v>
+      </c>
+      <c r="DR6">
+        <v>20</v>
+      </c>
+      <c r="DS6">
+        <v>17</v>
+      </c>
+      <c r="DT6">
         <v>21</v>
       </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
-      <c r="N6">
+      <c r="DU6">
+        <v>21</v>
+      </c>
+      <c r="DV6">
+        <v>19</v>
+      </c>
+      <c r="DW6">
         <v>24</v>
       </c>
-      <c r="O6">
+      <c r="DX6">
+        <v>18</v>
+      </c>
+      <c r="DY6">
+        <v>16</v>
+      </c>
+      <c r="DZ6">
+        <v>14</v>
+      </c>
+      <c r="EA6">
+        <v>21</v>
+      </c>
+      <c r="EB6">
         <v>22</v>
       </c>
-      <c r="P6">
+      <c r="EC6">
+        <v>19</v>
+      </c>
+      <c r="ED6">
+        <v>18</v>
+      </c>
+      <c r="EE6">
+        <v>19</v>
+      </c>
+      <c r="EF6">
         <v>17</v>
       </c>
-      <c r="Q6">
+      <c r="EG6">
+        <v>15</v>
+      </c>
+      <c r="EH6">
+        <v>16</v>
+      </c>
+      <c r="EI6">
         <v>21</v>
       </c>
-      <c r="R6">
+      <c r="EJ6">
+        <v>19</v>
+      </c>
+      <c r="EK6">
         <v>20</v>
       </c>
-      <c r="S6">
-        <v>23</v>
-      </c>
-      <c r="T6">
-        <v>22</v>
-      </c>
-      <c r="U6">
+      <c r="EL6">
+        <v>15</v>
+      </c>
+      <c r="EM6">
+        <v>16</v>
+      </c>
+      <c r="EN6">
+        <v>16</v>
+      </c>
+      <c r="EO6">
+        <v>16</v>
+      </c>
+      <c r="EP6">
         <v>21</v>
       </c>
-      <c r="V6">
+      <c r="EQ6">
+        <v>21</v>
+      </c>
+      <c r="ER6">
+        <v>16</v>
+      </c>
+      <c r="ES6">
+        <v>20</v>
+      </c>
+      <c r="ET6">
+        <v>17</v>
+      </c>
+      <c r="EU6">
+        <v>17</v>
+      </c>
+      <c r="EV6">
+        <v>16</v>
+      </c>
+      <c r="EW6">
+        <v>15</v>
+      </c>
+      <c r="EX6">
+        <v>16</v>
+      </c>
+      <c r="EY6">
         <v>18</v>
       </c>
-      <c r="W6">
+      <c r="EZ6">
         <v>21</v>
       </c>
-      <c r="X6">
-        <v>20</v>
-      </c>
-      <c r="Y6">
-        <v>21</v>
-      </c>
-      <c r="Z6">
-        <v>18</v>
-      </c>
-      <c r="AA6">
-        <v>18</v>
-      </c>
-      <c r="AB6">
-        <v>22</v>
-      </c>
-      <c r="AC6">
+      <c r="FA6">
+        <v>10</v>
+      </c>
+      <c r="FB6">
+        <v>16</v>
+      </c>
+      <c r="FC6">
+        <v>16</v>
+      </c>
+      <c r="FD6">
+        <v>13</v>
+      </c>
+      <c r="FE6">
         <v>17</v>
       </c>
-      <c r="AD6">
+      <c r="FF6">
         <v>19</v>
       </c>
-      <c r="AE6">
-        <v>18</v>
-      </c>
-      <c r="AF6">
-        <v>18</v>
-      </c>
-      <c r="AG6">
+      <c r="FG6">
+        <v>11</v>
+      </c>
+      <c r="FH6">
+        <v>12</v>
+      </c>
+      <c r="FI6">
+        <v>14</v>
+      </c>
+      <c r="FJ6">
+        <v>16</v>
+      </c>
+      <c r="FK6">
         <v>19</v>
       </c>
-      <c r="AH6">
-        <v>13</v>
-      </c>
-      <c r="AI6">
-        <v>15</v>
-      </c>
-      <c r="AJ6">
-        <v>16</v>
-      </c>
-      <c r="AK6">
-        <v>18</v>
-      </c>
-      <c r="AL6">
-        <v>15</v>
-      </c>
-      <c r="AM6">
-        <v>10</v>
-      </c>
-      <c r="AN6">
-        <v>10</v>
-      </c>
-      <c r="AO6">
+      <c r="FL6">
+        <v>14</v>
+      </c>
+      <c r="FM6">
         <v>11</v>
       </c>
-      <c r="AP6">
-        <v>8</v>
-      </c>
-      <c r="AQ6">
+      <c r="FN6">
         <v>12</v>
-      </c>
-      <c r="AR6">
-        <v>10</v>
-      </c>
-      <c r="AS6">
-        <v>11</v>
-      </c>
-      <c r="AT6">
-        <v>7</v>
-      </c>
-      <c r="AU6">
-        <v>12</v>
-      </c>
-      <c r="AV6">
-        <v>9</v>
-      </c>
-      <c r="AW6">
-        <v>12</v>
-      </c>
-      <c r="AX6">
-        <v>13</v>
-      </c>
-      <c r="AY6">
-        <v>9</v>
-      </c>
-      <c r="AZ6">
-        <v>16</v>
-      </c>
-      <c r="BA6">
-        <v>9</v>
-      </c>
-      <c r="BB6">
-        <v>13</v>
-      </c>
-      <c r="BC6">
-        <v>11</v>
-      </c>
-      <c r="BD6">
-        <v>10</v>
-      </c>
-      <c r="BE6">
-        <v>11</v>
-      </c>
-      <c r="BF6">
-        <v>10</v>
-      </c>
-      <c r="BG6">
-        <v>12</v>
-      </c>
-      <c r="BH6">
-        <v>10</v>
-      </c>
-      <c r="BI6">
-        <v>8</v>
-      </c>
-      <c r="BJ6">
-        <v>8</v>
-      </c>
-      <c r="BK6">
-        <v>9</v>
-      </c>
-      <c r="BL6">
-        <v>10</v>
-      </c>
-      <c r="BM6">
-        <v>11</v>
-      </c>
-      <c r="BN6">
-        <v>9</v>
-      </c>
-      <c r="BO6">
-        <v>14</v>
-      </c>
-      <c r="BP6">
-        <v>11</v>
-      </c>
-      <c r="BQ6">
-        <v>10</v>
-      </c>
-      <c r="BR6">
-        <v>9</v>
-      </c>
-      <c r="BS6">
-        <v>9</v>
-      </c>
-      <c r="BT6">
-        <v>10</v>
-      </c>
-      <c r="BU6">
-        <v>13</v>
-      </c>
-      <c r="BV6">
-        <v>10</v>
-      </c>
-      <c r="BW6">
-        <v>10</v>
-      </c>
-      <c r="BX6">
-        <v>7</v>
-      </c>
-      <c r="BY6">
-        <v>8</v>
-      </c>
-      <c r="BZ6">
-        <v>13</v>
-      </c>
-      <c r="CA6">
-        <v>8</v>
-      </c>
-      <c r="CB6">
-        <v>10</v>
-      </c>
-      <c r="CC6">
-        <v>7</v>
-      </c>
-      <c r="CD6">
-        <v>10</v>
-      </c>
-      <c r="CE6">
-        <v>11</v>
-      </c>
-      <c r="CF6">
-        <v>9</v>
-      </c>
-      <c r="CG6">
-        <v>8</v>
-      </c>
-      <c r="CH6">
-        <v>10</v>
-      </c>
-      <c r="CI6">
-        <v>8</v>
-      </c>
-      <c r="CJ6">
-        <v>9</v>
-      </c>
-      <c r="CK6">
-        <v>8</v>
-      </c>
-      <c r="CL6">
-        <v>11</v>
-      </c>
-      <c r="CM6">
-        <v>11</v>
-      </c>
-      <c r="CN6">
-        <v>7</v>
-      </c>
-      <c r="CO6">
-        <v>12</v>
-      </c>
-      <c r="CP6">
-        <v>7</v>
-      </c>
-      <c r="CQ6">
-        <v>8</v>
-      </c>
-      <c r="CR6">
-        <v>10</v>
-      </c>
-      <c r="CS6">
-        <v>7</v>
-      </c>
-      <c r="CT6">
-        <v>6</v>
-      </c>
-      <c r="CU6">
-        <v>7</v>
-      </c>
-      <c r="CV6">
-        <v>6</v>
-      </c>
-      <c r="CW6">
-        <v>8</v>
-      </c>
-      <c r="CX6">
-        <v>6</v>
-      </c>
-      <c r="CY6">
-        <v>4</v>
-      </c>
-      <c r="CZ6">
-        <v>7</v>
-      </c>
-      <c r="DA6">
-        <v>7</v>
-      </c>
-      <c r="DB6">
-        <v>6</v>
-      </c>
-      <c r="DC6">
-        <v>7</v>
-      </c>
-      <c r="DD6">
-        <v>7</v>
-      </c>
-      <c r="DE6">
-        <v>5</v>
-      </c>
-      <c r="DF6">
-        <v>6</v>
-      </c>
-      <c r="DG6">
-        <v>9</v>
-      </c>
-      <c r="DH6">
-        <v>6</v>
-      </c>
-      <c r="DI6">
-        <v>5</v>
-      </c>
-      <c r="DJ6">
-        <v>5</v>
-      </c>
-      <c r="DK6">
-        <v>5</v>
-      </c>
-      <c r="DL6">
-        <v>9</v>
-      </c>
-      <c r="DM6">
-        <v>6</v>
-      </c>
-      <c r="DN6">
-        <v>7</v>
-      </c>
-      <c r="DO6">
-        <v>7</v>
-      </c>
-      <c r="DP6">
-        <v>5</v>
-      </c>
-      <c r="DQ6">
-        <v>5</v>
-      </c>
-      <c r="DR6">
-        <v>5</v>
-      </c>
-      <c r="DS6">
-        <v>5</v>
-      </c>
-      <c r="DT6">
-        <v>5</v>
-      </c>
-      <c r="DU6">
-        <v>6</v>
-      </c>
-      <c r="DV6">
-        <v>3</v>
-      </c>
-      <c r="DW6">
-        <v>5</v>
-      </c>
-      <c r="DX6">
-        <v>4</v>
-      </c>
-      <c r="DY6">
-        <v>5</v>
-      </c>
-      <c r="DZ6">
-        <v>6</v>
-      </c>
-      <c r="EA6">
-        <v>4</v>
-      </c>
-      <c r="EB6">
-        <v>4</v>
-      </c>
-      <c r="EC6">
-        <v>4</v>
-      </c>
-      <c r="ED6">
-        <v>2</v>
-      </c>
-      <c r="EE6">
-        <v>6</v>
-      </c>
-      <c r="EF6">
-        <v>4</v>
-      </c>
-      <c r="EG6">
-        <v>5</v>
-      </c>
-      <c r="EH6">
-        <v>5</v>
-      </c>
-      <c r="EI6">
-        <v>5</v>
-      </c>
-      <c r="EJ6">
-        <v>3</v>
-      </c>
-      <c r="EK6">
-        <v>4</v>
-      </c>
-      <c r="EL6">
-        <v>5</v>
-      </c>
-      <c r="EM6">
-        <v>8</v>
-      </c>
-      <c r="EN6">
-        <v>5</v>
-      </c>
-      <c r="EO6">
-        <v>5</v>
-      </c>
-      <c r="EP6">
-        <v>4</v>
-      </c>
-      <c r="EQ6">
-        <v>5</v>
-      </c>
-      <c r="ER6">
-        <v>5</v>
-      </c>
-      <c r="ES6">
-        <v>5</v>
-      </c>
-      <c r="ET6">
-        <v>6</v>
-      </c>
-      <c r="EU6">
-        <v>5</v>
-      </c>
-      <c r="EV6">
-        <v>3</v>
-      </c>
-      <c r="EW6">
-        <v>6</v>
-      </c>
-      <c r="EX6">
-        <v>3</v>
-      </c>
-      <c r="EY6">
-        <v>6</v>
-      </c>
-      <c r="EZ6">
-        <v>2</v>
-      </c>
-      <c r="FA6">
-        <v>4</v>
-      </c>
-      <c r="FB6">
-        <v>6</v>
-      </c>
-      <c r="FC6">
-        <v>3</v>
-      </c>
-      <c r="FD6">
-        <v>5</v>
-      </c>
-      <c r="FE6">
-        <v>3</v>
-      </c>
-      <c r="FF6">
-        <v>4</v>
-      </c>
-      <c r="FG6">
-        <v>5</v>
-      </c>
-      <c r="FH6">
-        <v>3</v>
-      </c>
-      <c r="FI6">
-        <v>2</v>
-      </c>
-      <c r="FJ6">
-        <v>2</v>
-      </c>
-      <c r="FK6">
-        <v>4</v>
-      </c>
-      <c r="FL6">
-        <v>3</v>
-      </c>
-      <c r="FM6">
-        <v>3</v>
-      </c>
-      <c r="FN6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:171">
@@ -4929,478 +4929,478 @@
         <v>351</v>
       </c>
       <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>53</v>
+      </c>
+      <c r="L7">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <v>61</v>
+      </c>
+      <c r="N7">
+        <v>57</v>
+      </c>
+      <c r="O7">
+        <v>54</v>
+      </c>
+      <c r="P7">
+        <v>47</v>
+      </c>
+      <c r="Q7">
+        <v>49</v>
+      </c>
+      <c r="R7">
+        <v>52</v>
+      </c>
+      <c r="S7">
+        <v>46</v>
+      </c>
+      <c r="T7">
+        <v>51</v>
+      </c>
+      <c r="U7">
+        <v>50</v>
+      </c>
+      <c r="V7">
+        <v>49</v>
+      </c>
+      <c r="W7">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>42</v>
+      </c>
+      <c r="Y7">
+        <v>52</v>
+      </c>
+      <c r="Z7">
+        <v>46</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <v>42</v>
+      </c>
+      <c r="AC7">
+        <v>33</v>
+      </c>
+      <c r="AD7">
+        <v>37</v>
+      </c>
+      <c r="AE7">
+        <v>39</v>
+      </c>
+      <c r="AF7">
+        <v>45</v>
+      </c>
+      <c r="AG7">
+        <v>42</v>
+      </c>
+      <c r="AH7">
+        <v>43</v>
+      </c>
+      <c r="AI7">
+        <v>34</v>
+      </c>
+      <c r="AJ7">
+        <v>34</v>
+      </c>
+      <c r="AK7">
+        <v>36</v>
+      </c>
+      <c r="AL7">
+        <v>35</v>
+      </c>
+      <c r="AM7">
+        <v>35</v>
+      </c>
+      <c r="AN7">
+        <v>31</v>
+      </c>
+      <c r="AO7">
+        <v>34</v>
+      </c>
+      <c r="AP7">
+        <v>34</v>
+      </c>
+      <c r="AQ7">
+        <v>35</v>
+      </c>
+      <c r="AR7">
+        <v>30</v>
+      </c>
+      <c r="AS7">
+        <v>33</v>
+      </c>
+      <c r="AT7">
+        <v>25</v>
+      </c>
+      <c r="AU7">
+        <v>32</v>
+      </c>
+      <c r="AV7">
+        <v>34</v>
+      </c>
+      <c r="AW7">
+        <v>30</v>
+      </c>
+      <c r="AX7">
+        <v>26</v>
+      </c>
+      <c r="AY7">
+        <v>32</v>
+      </c>
+      <c r="AZ7">
+        <v>30</v>
+      </c>
+      <c r="BA7">
+        <v>33</v>
+      </c>
+      <c r="BB7">
+        <v>31</v>
+      </c>
+      <c r="BC7">
+        <v>33</v>
+      </c>
+      <c r="BD7">
         <v>29</v>
       </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-      <c r="D7">
+      <c r="BE7">
+        <v>24</v>
+      </c>
+      <c r="BF7">
+        <v>30</v>
+      </c>
+      <c r="BG7">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="BH7">
+        <v>22</v>
+      </c>
+      <c r="BI7">
+        <v>30</v>
+      </c>
+      <c r="BJ7">
+        <v>28</v>
+      </c>
+      <c r="BK7">
+        <v>25</v>
+      </c>
+      <c r="BL7">
+        <v>25</v>
+      </c>
+      <c r="BM7">
+        <v>22</v>
+      </c>
+      <c r="BN7">
+        <v>20</v>
+      </c>
+      <c r="BO7">
+        <v>24</v>
+      </c>
+      <c r="BP7">
+        <v>20</v>
+      </c>
+      <c r="BQ7">
+        <v>19</v>
+      </c>
+      <c r="BR7">
+        <v>19</v>
+      </c>
+      <c r="BS7">
+        <v>22</v>
+      </c>
+      <c r="BT7">
+        <v>19</v>
+      </c>
+      <c r="BU7">
         <v>21</v>
       </c>
-      <c r="F7">
+      <c r="BV7">
+        <v>22</v>
+      </c>
+      <c r="BW7">
+        <v>21</v>
+      </c>
+      <c r="BX7">
+        <v>20</v>
+      </c>
+      <c r="BY7">
         <v>24</v>
       </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>25</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-      <c r="N7">
-        <v>24</v>
-      </c>
-      <c r="O7">
-        <v>22</v>
-      </c>
-      <c r="P7">
+      <c r="BZ7">
+        <v>18</v>
+      </c>
+      <c r="CA7">
         <v>17</v>
       </c>
-      <c r="Q7">
-        <v>21</v>
-      </c>
-      <c r="R7">
+      <c r="CB7">
+        <v>15</v>
+      </c>
+      <c r="CC7">
+        <v>16</v>
+      </c>
+      <c r="CD7">
+        <v>18</v>
+      </c>
+      <c r="CE7">
         <v>20</v>
       </c>
-      <c r="S7">
-        <v>23</v>
-      </c>
-      <c r="T7">
-        <v>22</v>
-      </c>
-      <c r="U7">
-        <v>21</v>
-      </c>
-      <c r="V7">
+      <c r="CF7">
         <v>18</v>
       </c>
-      <c r="W7">
-        <v>21</v>
-      </c>
-      <c r="X7">
+      <c r="CG7">
         <v>20</v>
       </c>
-      <c r="Y7">
-        <v>21</v>
-      </c>
-      <c r="Z7">
+      <c r="CH7">
+        <v>17</v>
+      </c>
+      <c r="CI7">
         <v>18</v>
       </c>
-      <c r="AA7">
+      <c r="CJ7">
+        <v>16</v>
+      </c>
+      <c r="CK7">
         <v>18</v>
       </c>
-      <c r="AB7">
-        <v>22</v>
-      </c>
-      <c r="AC7">
-        <v>17</v>
-      </c>
-      <c r="AD7">
-        <v>19</v>
-      </c>
-      <c r="AE7">
-        <v>18</v>
-      </c>
-      <c r="AF7">
-        <v>18</v>
-      </c>
-      <c r="AG7">
-        <v>19</v>
-      </c>
-      <c r="AH7">
+      <c r="CL7">
         <v>13</v>
       </c>
-      <c r="AI7">
+      <c r="CM7">
         <v>15</v>
       </c>
-      <c r="AJ7">
-        <v>16</v>
-      </c>
-      <c r="AK7">
-        <v>18</v>
-      </c>
-      <c r="AL7">
+      <c r="CN7">
+        <v>12</v>
+      </c>
+      <c r="CO7">
         <v>15</v>
       </c>
-      <c r="AM7">
+      <c r="CP7">
+        <v>15</v>
+      </c>
+      <c r="CQ7">
+        <v>15</v>
+      </c>
+      <c r="CR7">
+        <v>13</v>
+      </c>
+      <c r="CS7">
+        <v>13</v>
+      </c>
+      <c r="CT7">
+        <v>13</v>
+      </c>
+      <c r="CU7">
+        <v>13</v>
+      </c>
+      <c r="CV7">
+        <v>11</v>
+      </c>
+      <c r="CW7">
+        <v>9</v>
+      </c>
+      <c r="CX7">
+        <v>7</v>
+      </c>
+      <c r="CY7">
         <v>10</v>
       </c>
-      <c r="AN7">
-        <v>10</v>
-      </c>
-      <c r="AO7">
-        <v>11</v>
-      </c>
-      <c r="AP7">
+      <c r="CZ7">
         <v>8</v>
       </c>
-      <c r="AQ7">
-        <v>12</v>
-      </c>
-      <c r="AR7">
-        <v>10</v>
-      </c>
-      <c r="AS7">
-        <v>11</v>
-      </c>
-      <c r="AT7">
+      <c r="DA7">
+        <v>9</v>
+      </c>
+      <c r="DB7">
+        <v>13</v>
+      </c>
+      <c r="DC7">
+        <v>9</v>
+      </c>
+      <c r="DD7">
+        <v>9</v>
+      </c>
+      <c r="DE7">
+        <v>8</v>
+      </c>
+      <c r="DF7">
+        <v>6</v>
+      </c>
+      <c r="DG7">
+        <v>9</v>
+      </c>
+      <c r="DH7">
+        <v>8</v>
+      </c>
+      <c r="DI7">
+        <v>6</v>
+      </c>
+      <c r="DJ7">
+        <v>5</v>
+      </c>
+      <c r="DK7">
         <v>7</v>
       </c>
-      <c r="AU7">
-        <v>12</v>
-      </c>
-      <c r="AV7">
+      <c r="DL7">
+        <v>8</v>
+      </c>
+      <c r="DM7">
         <v>9</v>
       </c>
-      <c r="AW7">
-        <v>9</v>
-      </c>
-      <c r="AX7">
-        <v>12</v>
-      </c>
-      <c r="AY7">
-        <v>8</v>
-      </c>
-      <c r="AZ7">
-        <v>12</v>
-      </c>
-      <c r="BA7">
-        <v>10</v>
-      </c>
-      <c r="BB7">
-        <v>8</v>
-      </c>
-      <c r="BC7">
-        <v>9</v>
-      </c>
-      <c r="BD7">
-        <v>10</v>
-      </c>
-      <c r="BE7">
-        <v>8</v>
-      </c>
-      <c r="BF7">
+      <c r="DN7">
+        <v>6</v>
+      </c>
+      <c r="DO7">
+        <v>4</v>
+      </c>
+      <c r="DP7">
+        <v>6</v>
+      </c>
+      <c r="DQ7">
         <v>7</v>
       </c>
-      <c r="BG7">
-        <v>8</v>
-      </c>
-      <c r="BH7">
-        <v>8</v>
-      </c>
-      <c r="BI7">
+      <c r="DR7">
         <v>6</v>
       </c>
-      <c r="BJ7">
-        <v>8</v>
-      </c>
-      <c r="BK7">
-        <v>7</v>
-      </c>
-      <c r="BL7">
-        <v>8</v>
-      </c>
-      <c r="BM7">
-        <v>9</v>
-      </c>
-      <c r="BN7">
+      <c r="DS7">
+        <v>5</v>
+      </c>
+      <c r="DT7">
         <v>6</v>
       </c>
-      <c r="BO7">
+      <c r="DU7">
         <v>6</v>
       </c>
-      <c r="BP7">
+      <c r="DV7">
+        <v>3</v>
+      </c>
+      <c r="DW7">
+        <v>4</v>
+      </c>
+      <c r="DX7">
+        <v>5</v>
+      </c>
+      <c r="DY7">
+        <v>4</v>
+      </c>
+      <c r="DZ7">
+        <v>4</v>
+      </c>
+      <c r="EA7">
         <v>6</v>
       </c>
-      <c r="BQ7">
-        <v>7</v>
-      </c>
-      <c r="BR7">
+      <c r="EB7">
         <v>5</v>
       </c>
-      <c r="BS7">
+      <c r="EC7">
+        <v>3</v>
+      </c>
+      <c r="ED7">
         <v>4</v>
       </c>
-      <c r="BT7">
-        <v>7</v>
-      </c>
-      <c r="BU7">
-        <v>7</v>
-      </c>
-      <c r="BV7">
-        <v>6</v>
-      </c>
-      <c r="BW7">
-        <v>10</v>
-      </c>
-      <c r="BX7">
-        <v>6</v>
-      </c>
-      <c r="BY7">
+      <c r="EE7">
         <v>4</v>
       </c>
-      <c r="BZ7">
-        <v>9</v>
-      </c>
-      <c r="CA7">
-        <v>3</v>
-      </c>
-      <c r="CB7">
-        <v>5</v>
-      </c>
-      <c r="CC7">
-        <v>6</v>
-      </c>
-      <c r="CD7">
-        <v>8</v>
-      </c>
-      <c r="CE7">
-        <v>8</v>
-      </c>
-      <c r="CF7">
-        <v>6</v>
-      </c>
-      <c r="CG7">
-        <v>5</v>
-      </c>
-      <c r="CH7">
-        <v>6</v>
-      </c>
-      <c r="CI7">
-        <v>6</v>
-      </c>
-      <c r="CJ7">
-        <v>3</v>
-      </c>
-      <c r="CK7">
-        <v>7</v>
-      </c>
-      <c r="CL7">
-        <v>5</v>
-      </c>
-      <c r="CM7">
-        <v>3</v>
-      </c>
-      <c r="CN7">
-        <v>5</v>
-      </c>
-      <c r="CO7">
-        <v>5</v>
-      </c>
-      <c r="CP7">
-        <v>5</v>
-      </c>
-      <c r="CQ7">
-        <v>2</v>
-      </c>
-      <c r="CR7">
-        <v>6</v>
-      </c>
-      <c r="CS7">
-        <v>5</v>
-      </c>
-      <c r="CT7">
-        <v>6</v>
-      </c>
-      <c r="CU7">
-        <v>3</v>
-      </c>
-      <c r="CV7">
-        <v>3</v>
-      </c>
-      <c r="CW7">
+      <c r="EF7">
         <v>4</v>
-      </c>
-      <c r="CX7">
-        <v>4</v>
-      </c>
-      <c r="CY7">
-        <v>3</v>
-      </c>
-      <c r="CZ7">
-        <v>3</v>
-      </c>
-      <c r="DA7">
-        <v>4</v>
-      </c>
-      <c r="DB7">
-        <v>4</v>
-      </c>
-      <c r="DC7">
-        <v>2</v>
-      </c>
-      <c r="DD7">
-        <v>2</v>
-      </c>
-      <c r="DE7">
-        <v>3</v>
-      </c>
-      <c r="DF7">
-        <v>2</v>
-      </c>
-      <c r="DG7">
-        <v>3</v>
-      </c>
-      <c r="DH7">
-        <v>2</v>
-      </c>
-      <c r="DI7">
-        <v>4</v>
-      </c>
-      <c r="DJ7">
-        <v>2</v>
-      </c>
-      <c r="DK7">
-        <v>2</v>
-      </c>
-      <c r="DL7">
-        <v>1</v>
-      </c>
-      <c r="DM7">
-        <v>2</v>
-      </c>
-      <c r="DN7">
-        <v>4</v>
-      </c>
-      <c r="DO7">
-        <v>3</v>
-      </c>
-      <c r="DP7">
-        <v>2</v>
-      </c>
-      <c r="DQ7">
-        <v>1</v>
-      </c>
-      <c r="DR7">
-        <v>2</v>
-      </c>
-      <c r="DS7">
-        <v>2</v>
-      </c>
-      <c r="DT7">
-        <v>3</v>
-      </c>
-      <c r="DU7">
-        <v>2</v>
-      </c>
-      <c r="DV7">
-        <v>1</v>
-      </c>
-      <c r="DW7">
-        <v>3</v>
-      </c>
-      <c r="DX7">
-        <v>3</v>
-      </c>
-      <c r="DY7">
-        <v>3</v>
-      </c>
-      <c r="DZ7">
-        <v>3</v>
-      </c>
-      <c r="EA7">
-        <v>1</v>
-      </c>
-      <c r="EB7">
-        <v>2</v>
-      </c>
-      <c r="EC7">
-        <v>1</v>
-      </c>
-      <c r="ED7">
-        <v>1</v>
-      </c>
-      <c r="EE7">
-        <v>1</v>
-      </c>
-      <c r="EF7">
-        <v>0</v>
       </c>
       <c r="EG7">
         <v>3</v>
       </c>
       <c r="EH7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EI7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EJ7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EK7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EL7">
         <v>4</v>
       </c>
       <c r="EM7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EN7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EO7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EP7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EQ7">
         <v>2</v>
       </c>
       <c r="ER7">
+        <v>1</v>
+      </c>
+      <c r="ES7">
         <v>2</v>
       </c>
-      <c r="ES7">
-        <v>0</v>
-      </c>
       <c r="ET7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EU7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="EV7">
         <v>2</v>
       </c>
       <c r="EW7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EX7">
         <v>2</v>
       </c>
       <c r="EY7">
+        <v>2</v>
+      </c>
+      <c r="EZ7">
         <v>1</v>
       </c>
-      <c r="EZ7">
+      <c r="FA7">
         <v>2</v>
-      </c>
-      <c r="FA7">
-        <v>1</v>
       </c>
       <c r="FB7">
         <v>2</v>
       </c>
       <c r="FC7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FD7">
         <v>1</v>
@@ -5409,28 +5409,28 @@
         <v>2</v>
       </c>
       <c r="FF7">
+        <v>2</v>
+      </c>
+      <c r="FG7">
+        <v>2</v>
+      </c>
+      <c r="FH7">
+        <v>2</v>
+      </c>
+      <c r="FI7">
         <v>1</v>
-      </c>
-      <c r="FG7">
-        <v>0</v>
-      </c>
-      <c r="FH7">
-        <v>1</v>
-      </c>
-      <c r="FI7">
-        <v>2</v>
       </c>
       <c r="FJ7">
         <v>1</v>
       </c>
       <c r="FK7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FM7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FN7">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -5531,119 +5531,119 @@
         <v>0</v>
       </c>
       <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
         <v>1</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
       <c r="BR8">
         <v>0</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="CI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="CO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP8">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="CV8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW8">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="DB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC8">
         <v>0</v>
@@ -5774,23 +5774,23 @@
         <v>0</v>
       </c>
       <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
         <v>1</v>
       </c>
-      <c r="DJ8">
-        <v>0</v>
-      </c>
-      <c r="DK8">
-        <v>0</v>
-      </c>
-      <c r="DL8">
-        <v>0</v>
-      </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
       <c r="DO8">
         <v>0</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="DV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW8">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="EH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI8">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="EK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL8">
         <v>0</v>
@@ -5870,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="EO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER8">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="ET8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU8">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="EZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA8">
         <v>0</v>
@@ -5924,16 +5924,16 @@
         <v>0</v>
       </c>
       <c r="FG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK8">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6001,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -6019,10 +6019,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -6043,91 +6043,91 @@
         <v>0</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
         <v>1</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
       <c r="BH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="DE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF9">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6513,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -6555,65 +6555,65 @@
         <v>0</v>
       </c>
       <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
         <v>1</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
       <c r="AZ10">
         <v>0</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="CF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="DE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF10">
         <v>0</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="DO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP10">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -7067,65 +7067,65 @@
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
         <v>1</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
       <c r="AZ11">
         <v>0</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="CD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="DD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE11">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7537,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -7555,10 +7555,10 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -7579,64 +7579,64 @@
         <v>0</v>
       </c>
       <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
         <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -8001,511 +8001,511 @@
         <v>357</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>14</v>
-      </c>
-      <c r="G13">
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <v>26</v>
+      </c>
+      <c r="O13">
+        <v>40</v>
+      </c>
+      <c r="P13">
+        <v>35</v>
+      </c>
+      <c r="Q13">
+        <v>42</v>
+      </c>
+      <c r="R13">
+        <v>49</v>
+      </c>
+      <c r="S13">
+        <v>28</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>39</v>
+      </c>
+      <c r="W13">
+        <v>37</v>
+      </c>
+      <c r="X13">
+        <v>33</v>
+      </c>
+      <c r="Y13">
+        <v>35</v>
+      </c>
+      <c r="Z13">
+        <v>35</v>
+      </c>
+      <c r="AA13">
+        <v>31</v>
+      </c>
+      <c r="AB13">
+        <v>30</v>
+      </c>
+      <c r="AC13">
         <v>22</v>
       </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>17</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>16</v>
-      </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13">
-        <v>16</v>
-      </c>
-      <c r="O13">
-        <v>20</v>
-      </c>
-      <c r="P13">
-        <v>15</v>
-      </c>
-      <c r="Q13">
-        <v>15</v>
-      </c>
-      <c r="R13">
-        <v>21</v>
-      </c>
-      <c r="S13">
-        <v>15</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>15</v>
-      </c>
-      <c r="V13">
-        <v>19</v>
-      </c>
-      <c r="W13">
-        <v>21</v>
-      </c>
-      <c r="X13">
-        <v>17</v>
-      </c>
-      <c r="Y13">
-        <v>15</v>
-      </c>
-      <c r="Z13">
-        <v>13</v>
-      </c>
-      <c r="AA13">
-        <v>12</v>
-      </c>
-      <c r="AB13">
-        <v>14</v>
-      </c>
-      <c r="AC13">
-        <v>13</v>
-      </c>
       <c r="AD13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AE13">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AF13">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="AG13">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AH13">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AI13">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AJ13">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="AK13">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AL13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AM13">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AN13">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AO13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AP13">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AQ13">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AR13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AS13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AT13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AU13">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AV13">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AW13">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AX13">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AY13">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AZ13">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="BA13">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BB13">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="BC13">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="BD13">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="BE13">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BF13">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="BG13">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="BH13">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="BI13">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BJ13">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="BK13">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="BL13">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="BM13">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="BN13">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="BO13">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="BP13">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="BQ13">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="BR13">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="BS13">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="BT13">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="BU13">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="BV13">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="BW13">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="BX13">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="BY13">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="BZ13">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="CA13">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="CB13">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="CC13">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="CD13">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="CE13">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="CF13">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="CG13">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="CH13">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="CI13">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="CJ13">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="CK13">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="CL13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="CM13">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="CN13">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="CO13">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="CP13">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="CQ13">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="CR13">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="CS13">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="CT13">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="CU13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="CV13">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="CW13">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="CX13">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="CY13">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="CZ13">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="DA13">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="DB13">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="DC13">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="DD13">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="DE13">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="DF13">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="DG13">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="DH13">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="DI13">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="DJ13">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="DK13">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="DL13">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="DM13">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="DN13">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="DO13">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="DP13">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="DQ13">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="DR13">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="DS13">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="DT13">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="DU13">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="DV13">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="DW13">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="DX13">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="DY13">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="DZ13">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="EA13">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="EB13">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="EC13">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="ED13">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="EE13">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="EF13">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="EG13">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="EH13">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="EI13">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="EJ13">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="EK13">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="EL13">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="EM13">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="EN13">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="EO13">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="EP13">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="EQ13">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="ER13">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="ES13">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="ET13">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="EU13">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="EV13">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="EW13">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="EX13">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="EY13">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="EZ13">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="FA13">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="FB13">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="FC13">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="FD13">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="FE13">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="FF13">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="FG13">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="FH13">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="FI13">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="FJ13">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="FK13">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="FL13">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="FM13">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="FN13">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:171">
@@ -8513,511 +8513,511 @@
         <v>358</v>
       </c>
       <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>40</v>
+      </c>
+      <c r="P14">
+        <v>35</v>
+      </c>
+      <c r="Q14">
+        <v>42</v>
+      </c>
+      <c r="R14">
+        <v>49</v>
+      </c>
+      <c r="S14">
+        <v>28</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <v>39</v>
+      </c>
+      <c r="W14">
+        <v>37</v>
+      </c>
+      <c r="X14">
+        <v>33</v>
+      </c>
+      <c r="Y14">
+        <v>35</v>
+      </c>
+      <c r="Z14">
+        <v>35</v>
+      </c>
+      <c r="AA14">
+        <v>31</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14">
+        <v>22</v>
+      </c>
+      <c r="AD14">
+        <v>29</v>
+      </c>
+      <c r="AE14">
+        <v>31</v>
+      </c>
+      <c r="AF14">
+        <v>31</v>
+      </c>
+      <c r="AG14">
+        <v>27</v>
+      </c>
+      <c r="AH14">
+        <v>31</v>
+      </c>
+      <c r="AI14">
+        <v>27</v>
+      </c>
+      <c r="AJ14">
+        <v>35</v>
+      </c>
+      <c r="AK14">
+        <v>26</v>
+      </c>
+      <c r="AL14">
+        <v>28</v>
+      </c>
+      <c r="AM14">
+        <v>25</v>
+      </c>
+      <c r="AN14">
+        <v>28</v>
+      </c>
+      <c r="AO14">
+        <v>29</v>
+      </c>
+      <c r="AP14">
+        <v>28</v>
+      </c>
+      <c r="AQ14">
+        <v>26</v>
+      </c>
+      <c r="AR14">
+        <v>28</v>
+      </c>
+      <c r="AS14">
+        <v>24</v>
+      </c>
+      <c r="AT14">
+        <v>29</v>
+      </c>
+      <c r="AU14">
+        <v>29</v>
+      </c>
+      <c r="AV14">
+        <v>27</v>
+      </c>
+      <c r="AW14">
+        <v>23</v>
+      </c>
+      <c r="AX14">
+        <v>27</v>
+      </c>
+      <c r="AY14">
+        <v>25</v>
+      </c>
+      <c r="AZ14">
+        <v>24</v>
+      </c>
+      <c r="BA14">
+        <v>24</v>
+      </c>
+      <c r="BB14">
+        <v>30</v>
+      </c>
+      <c r="BC14">
+        <v>27</v>
+      </c>
+      <c r="BD14">
+        <v>25</v>
+      </c>
+      <c r="BE14">
+        <v>23</v>
+      </c>
+      <c r="BF14">
+        <v>30</v>
+      </c>
+      <c r="BG14">
+        <v>29</v>
+      </c>
+      <c r="BH14">
+        <v>29</v>
+      </c>
+      <c r="BI14">
+        <v>27</v>
+      </c>
+      <c r="BJ14">
+        <v>26</v>
+      </c>
+      <c r="BK14">
+        <v>28</v>
+      </c>
+      <c r="BL14">
+        <v>29</v>
+      </c>
+      <c r="BM14">
+        <v>24</v>
+      </c>
+      <c r="BN14">
+        <v>26</v>
+      </c>
+      <c r="BO14">
+        <v>24</v>
+      </c>
+      <c r="BP14">
+        <v>25</v>
+      </c>
+      <c r="BQ14">
+        <v>23</v>
+      </c>
+      <c r="BR14">
+        <v>27</v>
+      </c>
+      <c r="BS14">
+        <v>22</v>
+      </c>
+      <c r="BT14">
+        <v>24</v>
+      </c>
+      <c r="BU14">
+        <v>24</v>
+      </c>
+      <c r="BV14">
+        <v>21</v>
+      </c>
+      <c r="BW14">
+        <v>18</v>
+      </c>
+      <c r="BX14">
+        <v>23</v>
+      </c>
+      <c r="BY14">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="BZ14">
+        <v>21</v>
+      </c>
+      <c r="CA14">
+        <v>22</v>
+      </c>
+      <c r="CB14">
+        <v>21</v>
+      </c>
+      <c r="CC14">
+        <v>20</v>
+      </c>
+      <c r="CD14">
+        <v>17</v>
+      </c>
+      <c r="CE14">
+        <v>24</v>
+      </c>
+      <c r="CF14">
+        <v>18</v>
+      </c>
+      <c r="CG14">
+        <v>23</v>
+      </c>
+      <c r="CH14">
+        <v>21</v>
+      </c>
+      <c r="CI14">
+        <v>15</v>
+      </c>
+      <c r="CJ14">
+        <v>23</v>
+      </c>
+      <c r="CK14">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="CL14">
+        <v>18</v>
+      </c>
+      <c r="CM14">
+        <v>18</v>
+      </c>
+      <c r="CN14">
         <v>21</v>
       </c>
-      <c r="E14">
+      <c r="CO14">
+        <v>23</v>
+      </c>
+      <c r="CP14">
+        <v>22</v>
+      </c>
+      <c r="CQ14">
+        <v>18</v>
+      </c>
+      <c r="CR14">
+        <v>17</v>
+      </c>
+      <c r="CS14">
+        <v>22</v>
+      </c>
+      <c r="CT14">
+        <v>21</v>
+      </c>
+      <c r="CU14">
+        <v>16</v>
+      </c>
+      <c r="CV14">
+        <v>14</v>
+      </c>
+      <c r="CW14">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="CX14">
+        <v>22</v>
+      </c>
+      <c r="CY14">
+        <v>16</v>
+      </c>
+      <c r="CZ14">
+        <v>28</v>
+      </c>
+      <c r="DA14">
+        <v>18</v>
+      </c>
+      <c r="DB14">
+        <v>21</v>
+      </c>
+      <c r="DC14">
+        <v>20</v>
+      </c>
+      <c r="DD14">
+        <v>23</v>
+      </c>
+      <c r="DE14">
+        <v>21</v>
+      </c>
+      <c r="DF14">
+        <v>19</v>
+      </c>
+      <c r="DG14">
+        <v>22</v>
+      </c>
+      <c r="DH14">
+        <v>18</v>
+      </c>
+      <c r="DI14">
+        <v>17</v>
+      </c>
+      <c r="DJ14">
+        <v>17</v>
+      </c>
+      <c r="DK14">
+        <v>20</v>
+      </c>
+      <c r="DL14">
+        <v>22</v>
+      </c>
+      <c r="DM14">
+        <v>20</v>
+      </c>
+      <c r="DN14">
+        <v>21</v>
+      </c>
+      <c r="DO14">
+        <v>21</v>
+      </c>
+      <c r="DP14">
+        <v>25</v>
+      </c>
+      <c r="DQ14">
+        <v>22</v>
+      </c>
+      <c r="DR14">
+        <v>20</v>
+      </c>
+      <c r="DS14">
+        <v>23</v>
+      </c>
+      <c r="DT14">
+        <v>17</v>
+      </c>
+      <c r="DU14">
+        <v>19</v>
+      </c>
+      <c r="DV14">
+        <v>23</v>
+      </c>
+      <c r="DW14">
+        <v>22</v>
+      </c>
+      <c r="DX14">
+        <v>20</v>
+      </c>
+      <c r="DY14">
+        <v>19</v>
+      </c>
+      <c r="DZ14">
+        <v>21</v>
+      </c>
+      <c r="EA14">
+        <v>15</v>
+      </c>
+      <c r="EB14">
+        <v>17</v>
+      </c>
+      <c r="EC14">
+        <v>18</v>
+      </c>
+      <c r="ED14">
+        <v>19</v>
+      </c>
+      <c r="EE14">
+        <v>18</v>
+      </c>
+      <c r="EF14">
+        <v>19</v>
+      </c>
+      <c r="EG14">
+        <v>18</v>
+      </c>
+      <c r="EH14">
+        <v>21</v>
+      </c>
+      <c r="EI14">
+        <v>22</v>
+      </c>
+      <c r="EJ14">
+        <v>18</v>
+      </c>
+      <c r="EK14">
+        <v>21</v>
+      </c>
+      <c r="EL14">
+        <v>24</v>
+      </c>
+      <c r="EM14">
+        <v>18</v>
+      </c>
+      <c r="EN14">
+        <v>15</v>
+      </c>
+      <c r="EO14">
+        <v>23</v>
+      </c>
+      <c r="EP14">
+        <v>17</v>
+      </c>
+      <c r="EQ14">
+        <v>19</v>
+      </c>
+      <c r="ER14">
+        <v>18</v>
+      </c>
+      <c r="ES14">
+        <v>21</v>
+      </c>
+      <c r="ET14">
+        <v>13</v>
+      </c>
+      <c r="EU14">
+        <v>20</v>
+      </c>
+      <c r="EV14">
+        <v>18</v>
+      </c>
+      <c r="EW14">
+        <v>13</v>
+      </c>
+      <c r="EX14">
+        <v>16</v>
+      </c>
+      <c r="EY14">
+        <v>16</v>
+      </c>
+      <c r="EZ14">
+        <v>19</v>
+      </c>
+      <c r="FA14">
+        <v>10</v>
+      </c>
+      <c r="FB14">
+        <v>19</v>
+      </c>
+      <c r="FC14">
+        <v>15</v>
+      </c>
+      <c r="FD14">
+        <v>15</v>
+      </c>
+      <c r="FE14">
+        <v>18</v>
+      </c>
+      <c r="FF14">
+        <v>18</v>
+      </c>
+      <c r="FG14">
         <v>14</v>
       </c>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
+      <c r="FH14">
         <v>12</v>
       </c>
-      <c r="L14">
-        <v>16</v>
-      </c>
-      <c r="M14">
+      <c r="FI14">
         <v>15</v>
       </c>
-      <c r="N14">
-        <v>16</v>
-      </c>
-      <c r="O14">
-        <v>20</v>
-      </c>
-      <c r="P14">
+      <c r="FJ14">
         <v>15</v>
       </c>
-      <c r="Q14">
+      <c r="FK14">
         <v>15</v>
       </c>
-      <c r="R14">
-        <v>21</v>
-      </c>
-      <c r="S14">
+      <c r="FL14">
         <v>15</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
+      <c r="FM14">
         <v>15</v>
       </c>
-      <c r="V14">
+      <c r="FN14">
         <v>19</v>
-      </c>
-      <c r="W14">
-        <v>21</v>
-      </c>
-      <c r="X14">
-        <v>17</v>
-      </c>
-      <c r="Y14">
-        <v>15</v>
-      </c>
-      <c r="Z14">
-        <v>13</v>
-      </c>
-      <c r="AA14">
-        <v>12</v>
-      </c>
-      <c r="AB14">
-        <v>14</v>
-      </c>
-      <c r="AC14">
-        <v>13</v>
-      </c>
-      <c r="AD14">
-        <v>14</v>
-      </c>
-      <c r="AE14">
-        <v>16</v>
-      </c>
-      <c r="AF14">
-        <v>14</v>
-      </c>
-      <c r="AG14">
-        <v>13</v>
-      </c>
-      <c r="AH14">
-        <v>14</v>
-      </c>
-      <c r="AI14">
-        <v>12</v>
-      </c>
-      <c r="AJ14">
-        <v>14</v>
-      </c>
-      <c r="AK14">
-        <v>13</v>
-      </c>
-      <c r="AL14">
-        <v>12</v>
-      </c>
-      <c r="AM14">
-        <v>15</v>
-      </c>
-      <c r="AN14">
-        <v>14</v>
-      </c>
-      <c r="AO14">
-        <v>14</v>
-      </c>
-      <c r="AP14">
-        <v>14</v>
-      </c>
-      <c r="AQ14">
-        <v>14</v>
-      </c>
-      <c r="AR14">
-        <v>9</v>
-      </c>
-      <c r="AS14">
-        <v>12</v>
-      </c>
-      <c r="AT14">
-        <v>14</v>
-      </c>
-      <c r="AU14">
-        <v>9</v>
-      </c>
-      <c r="AV14">
-        <v>8</v>
-      </c>
-      <c r="AW14">
-        <v>12</v>
-      </c>
-      <c r="AX14">
-        <v>12</v>
-      </c>
-      <c r="AY14">
-        <v>10</v>
-      </c>
-      <c r="AZ14">
-        <v>10</v>
-      </c>
-      <c r="BA14">
-        <v>7</v>
-      </c>
-      <c r="BB14">
-        <v>10</v>
-      </c>
-      <c r="BC14">
-        <v>11</v>
-      </c>
-      <c r="BD14">
-        <v>9</v>
-      </c>
-      <c r="BE14">
-        <v>8</v>
-      </c>
-      <c r="BF14">
-        <v>10</v>
-      </c>
-      <c r="BG14">
-        <v>8</v>
-      </c>
-      <c r="BH14">
-        <v>10</v>
-      </c>
-      <c r="BI14">
-        <v>13</v>
-      </c>
-      <c r="BJ14">
-        <v>11</v>
-      </c>
-      <c r="BK14">
-        <v>9</v>
-      </c>
-      <c r="BL14">
-        <v>7</v>
-      </c>
-      <c r="BM14">
-        <v>9</v>
-      </c>
-      <c r="BN14">
-        <v>9</v>
-      </c>
-      <c r="BO14">
-        <v>8</v>
-      </c>
-      <c r="BP14">
-        <v>11</v>
-      </c>
-      <c r="BQ14">
-        <v>10</v>
-      </c>
-      <c r="BR14">
-        <v>10</v>
-      </c>
-      <c r="BS14">
-        <v>9</v>
-      </c>
-      <c r="BT14">
-        <v>8</v>
-      </c>
-      <c r="BU14">
-        <v>8</v>
-      </c>
-      <c r="BV14">
-        <v>10</v>
-      </c>
-      <c r="BW14">
-        <v>7</v>
-      </c>
-      <c r="BX14">
-        <v>5</v>
-      </c>
-      <c r="BY14">
-        <v>9</v>
-      </c>
-      <c r="BZ14">
-        <v>8</v>
-      </c>
-      <c r="CA14">
-        <v>6</v>
-      </c>
-      <c r="CB14">
-        <v>6</v>
-      </c>
-      <c r="CC14">
-        <v>9</v>
-      </c>
-      <c r="CD14">
-        <v>9</v>
-      </c>
-      <c r="CE14">
-        <v>6</v>
-      </c>
-      <c r="CF14">
-        <v>8</v>
-      </c>
-      <c r="CG14">
-        <v>5</v>
-      </c>
-      <c r="CH14">
-        <v>7</v>
-      </c>
-      <c r="CI14">
-        <v>7</v>
-      </c>
-      <c r="CJ14">
-        <v>7</v>
-      </c>
-      <c r="CK14">
-        <v>6</v>
-      </c>
-      <c r="CL14">
-        <v>7</v>
-      </c>
-      <c r="CM14">
-        <v>5</v>
-      </c>
-      <c r="CN14">
-        <v>8</v>
-      </c>
-      <c r="CO14">
-        <v>8</v>
-      </c>
-      <c r="CP14">
-        <v>8</v>
-      </c>
-      <c r="CQ14">
-        <v>4</v>
-      </c>
-      <c r="CR14">
-        <v>6</v>
-      </c>
-      <c r="CS14">
-        <v>4</v>
-      </c>
-      <c r="CT14">
-        <v>9</v>
-      </c>
-      <c r="CU14">
-        <v>6</v>
-      </c>
-      <c r="CV14">
-        <v>7</v>
-      </c>
-      <c r="CW14">
-        <v>6</v>
-      </c>
-      <c r="CX14">
-        <v>5</v>
-      </c>
-      <c r="CY14">
-        <v>6</v>
-      </c>
-      <c r="CZ14">
-        <v>4</v>
-      </c>
-      <c r="DA14">
-        <v>4</v>
-      </c>
-      <c r="DB14">
-        <v>8</v>
-      </c>
-      <c r="DC14">
-        <v>6</v>
-      </c>
-      <c r="DD14">
-        <v>5</v>
-      </c>
-      <c r="DE14">
-        <v>6</v>
-      </c>
-      <c r="DF14">
-        <v>7</v>
-      </c>
-      <c r="DG14">
-        <v>5</v>
-      </c>
-      <c r="DH14">
-        <v>7</v>
-      </c>
-      <c r="DI14">
-        <v>5</v>
-      </c>
-      <c r="DJ14">
-        <v>5</v>
-      </c>
-      <c r="DK14">
-        <v>6</v>
-      </c>
-      <c r="DL14">
-        <v>6</v>
-      </c>
-      <c r="DM14">
-        <v>6</v>
-      </c>
-      <c r="DN14">
-        <v>5</v>
-      </c>
-      <c r="DO14">
-        <v>4</v>
-      </c>
-      <c r="DP14">
-        <v>5</v>
-      </c>
-      <c r="DQ14">
-        <v>5</v>
-      </c>
-      <c r="DR14">
-        <v>7</v>
-      </c>
-      <c r="DS14">
-        <v>6</v>
-      </c>
-      <c r="DT14">
-        <v>6</v>
-      </c>
-      <c r="DU14">
-        <v>6</v>
-      </c>
-      <c r="DV14">
-        <v>6</v>
-      </c>
-      <c r="DW14">
-        <v>4</v>
-      </c>
-      <c r="DX14">
-        <v>6</v>
-      </c>
-      <c r="DY14">
-        <v>8</v>
-      </c>
-      <c r="DZ14">
-        <v>6</v>
-      </c>
-      <c r="EA14">
-        <v>5</v>
-      </c>
-      <c r="EB14">
-        <v>4</v>
-      </c>
-      <c r="EC14">
-        <v>3</v>
-      </c>
-      <c r="ED14">
-        <v>5</v>
-      </c>
-      <c r="EE14">
-        <v>1</v>
-      </c>
-      <c r="EF14">
-        <v>2</v>
-      </c>
-      <c r="EG14">
-        <v>4</v>
-      </c>
-      <c r="EH14">
-        <v>4</v>
-      </c>
-      <c r="EI14">
-        <v>4</v>
-      </c>
-      <c r="EJ14">
-        <v>4</v>
-      </c>
-      <c r="EK14">
-        <v>3</v>
-      </c>
-      <c r="EL14">
-        <v>3</v>
-      </c>
-      <c r="EM14">
-        <v>4</v>
-      </c>
-      <c r="EN14">
-        <v>4</v>
-      </c>
-      <c r="EO14">
-        <v>2</v>
-      </c>
-      <c r="EP14">
-        <v>3</v>
-      </c>
-      <c r="EQ14">
-        <v>3</v>
-      </c>
-      <c r="ER14">
-        <v>5</v>
-      </c>
-      <c r="ES14">
-        <v>2</v>
-      </c>
-      <c r="ET14">
-        <v>2</v>
-      </c>
-      <c r="EU14">
-        <v>5</v>
-      </c>
-      <c r="EV14">
-        <v>6</v>
-      </c>
-      <c r="EW14">
-        <v>3</v>
-      </c>
-      <c r="EX14">
-        <v>5</v>
-      </c>
-      <c r="EY14">
-        <v>5</v>
-      </c>
-      <c r="EZ14">
-        <v>2</v>
-      </c>
-      <c r="FA14">
-        <v>4</v>
-      </c>
-      <c r="FB14">
-        <v>3</v>
-      </c>
-      <c r="FC14">
-        <v>2</v>
-      </c>
-      <c r="FD14">
-        <v>2</v>
-      </c>
-      <c r="FE14">
-        <v>2</v>
-      </c>
-      <c r="FF14">
-        <v>4</v>
-      </c>
-      <c r="FG14">
-        <v>2</v>
-      </c>
-      <c r="FH14">
-        <v>2</v>
-      </c>
-      <c r="FI14">
-        <v>2</v>
-      </c>
-      <c r="FJ14">
-        <v>4</v>
-      </c>
-      <c r="FK14">
-        <v>2</v>
-      </c>
-      <c r="FL14">
-        <v>2</v>
-      </c>
-      <c r="FM14">
-        <v>2</v>
-      </c>
-      <c r="FN14">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:171">
@@ -9025,511 +9025,511 @@
         <v>359</v>
       </c>
       <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+      <c r="L15">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>40</v>
+      </c>
+      <c r="P15">
+        <v>35</v>
+      </c>
+      <c r="Q15">
+        <v>42</v>
+      </c>
+      <c r="R15">
+        <v>49</v>
+      </c>
+      <c r="S15">
+        <v>28</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>39</v>
+      </c>
+      <c r="W15">
+        <v>37</v>
+      </c>
+      <c r="X15">
+        <v>33</v>
+      </c>
+      <c r="Y15">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>35</v>
+      </c>
+      <c r="AA15">
+        <v>31</v>
+      </c>
+      <c r="AB15">
+        <v>30</v>
+      </c>
+      <c r="AC15">
+        <v>22</v>
+      </c>
+      <c r="AD15">
+        <v>29</v>
+      </c>
+      <c r="AE15">
+        <v>31</v>
+      </c>
+      <c r="AF15">
+        <v>31</v>
+      </c>
+      <c r="AG15">
+        <v>27</v>
+      </c>
+      <c r="AH15">
+        <v>32</v>
+      </c>
+      <c r="AI15">
+        <v>27</v>
+      </c>
+      <c r="AJ15">
+        <v>30</v>
+      </c>
+      <c r="AK15">
+        <v>26</v>
+      </c>
+      <c r="AL15">
+        <v>30</v>
+      </c>
+      <c r="AM15">
+        <v>28</v>
+      </c>
+      <c r="AN15">
+        <v>25</v>
+      </c>
+      <c r="AO15">
+        <v>24</v>
+      </c>
+      <c r="AP15">
+        <v>26</v>
+      </c>
+      <c r="AQ15">
+        <v>21</v>
+      </c>
+      <c r="AR15">
+        <v>25</v>
+      </c>
+      <c r="AS15">
+        <v>23</v>
+      </c>
+      <c r="AT15">
+        <v>24</v>
+      </c>
+      <c r="AU15">
+        <v>23</v>
+      </c>
+      <c r="AV15">
         <v>19</v>
       </c>
-      <c r="C15">
+      <c r="AW15">
+        <v>24</v>
+      </c>
+      <c r="AX15">
+        <v>20</v>
+      </c>
+      <c r="AY15">
+        <v>22</v>
+      </c>
+      <c r="AZ15">
+        <v>18</v>
+      </c>
+      <c r="BA15">
         <v>19</v>
       </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
+      <c r="BB15">
+        <v>20</v>
+      </c>
+      <c r="BC15">
+        <v>25</v>
+      </c>
+      <c r="BD15">
+        <v>20</v>
+      </c>
+      <c r="BE15">
+        <v>20</v>
+      </c>
+      <c r="BF15">
         <v>19</v>
       </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>18</v>
-      </c>
-      <c r="I15">
-        <v>17</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>12</v>
-      </c>
-      <c r="L15">
-        <v>16</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>16</v>
-      </c>
-      <c r="O15">
-        <v>20</v>
-      </c>
-      <c r="P15">
-        <v>15</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-      <c r="R15">
-        <v>21</v>
-      </c>
-      <c r="S15">
-        <v>15</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>15</v>
-      </c>
-      <c r="V15">
-        <v>19</v>
-      </c>
-      <c r="W15">
-        <v>21</v>
-      </c>
-      <c r="X15">
-        <v>17</v>
-      </c>
-      <c r="Y15">
-        <v>15</v>
-      </c>
-      <c r="Z15">
-        <v>13</v>
-      </c>
-      <c r="AA15">
-        <v>12</v>
-      </c>
-      <c r="AB15">
-        <v>14</v>
-      </c>
-      <c r="AC15">
-        <v>13</v>
-      </c>
-      <c r="AD15">
-        <v>14</v>
-      </c>
-      <c r="AE15">
-        <v>16</v>
-      </c>
-      <c r="AF15">
-        <v>14</v>
-      </c>
-      <c r="AG15">
-        <v>13</v>
-      </c>
-      <c r="AH15">
-        <v>13</v>
-      </c>
-      <c r="AI15">
-        <v>11</v>
-      </c>
-      <c r="AJ15">
-        <v>15</v>
-      </c>
-      <c r="AK15">
-        <v>12</v>
-      </c>
-      <c r="AL15">
-        <v>13</v>
-      </c>
-      <c r="AM15">
-        <v>12</v>
-      </c>
-      <c r="AN15">
-        <v>11</v>
-      </c>
-      <c r="AO15">
-        <v>12</v>
-      </c>
-      <c r="AP15">
-        <v>13</v>
-      </c>
-      <c r="AQ15">
-        <v>10</v>
-      </c>
-      <c r="AR15">
-        <v>8</v>
-      </c>
-      <c r="AS15">
-        <v>13</v>
-      </c>
-      <c r="AT15">
-        <v>7</v>
-      </c>
-      <c r="AU15">
-        <v>8</v>
-      </c>
-      <c r="AV15">
-        <v>9</v>
-      </c>
-      <c r="AW15">
-        <v>7</v>
-      </c>
-      <c r="AX15">
-        <v>6</v>
-      </c>
-      <c r="AY15">
-        <v>6</v>
-      </c>
-      <c r="AZ15">
-        <v>6</v>
-      </c>
-      <c r="BA15">
-        <v>6</v>
-      </c>
-      <c r="BB15">
-        <v>9</v>
-      </c>
-      <c r="BC15">
-        <v>6</v>
-      </c>
-      <c r="BD15">
-        <v>9</v>
-      </c>
-      <c r="BE15">
-        <v>7</v>
-      </c>
-      <c r="BF15">
-        <v>4</v>
-      </c>
       <c r="BG15">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BH15">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="BI15">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="BJ15">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="BK15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BL15">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="BM15">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="BN15">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="BO15">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="BP15">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="BQ15">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="BR15">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BS15">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="BT15">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="BU15">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="BV15">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BW15">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="BX15">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="BY15">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="BZ15">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CA15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="CB15">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="CC15">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="CD15">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="CE15">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="CF15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="CG15">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="CH15">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="CI15">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="CJ15">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="CK15">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="CL15">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="CM15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CN15">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="CO15">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="CP15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CQ15">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="CR15">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="CS15">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="CT15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="CU15">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="CV15">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="CW15">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="CX15">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="CY15">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="CZ15">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="DA15">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="DB15">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="DC15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="DD15">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="DE15">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="DF15">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="DG15">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="DH15">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="DI15">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="DJ15">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="DK15">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="DL15">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="DM15">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="DN15">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="DO15">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="DP15">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="DQ15">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="DR15">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="DS15">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="DT15">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="DU15">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="DV15">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="DW15">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="DX15">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="DY15">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="DZ15">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="EA15">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="EB15">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="EC15">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="ED15">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="EE15">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="EF15">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="EG15">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="EH15">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="EI15">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="EJ15">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="EK15">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="EL15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="EM15">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="EN15">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="EO15">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="EP15">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="EQ15">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="ER15">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="ES15">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="ET15">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="EU15">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="EV15">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="EW15">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="EX15">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="EY15">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="EZ15">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="FA15">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="FB15">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="FC15">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="FD15">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="FE15">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="FF15">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="FG15">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="FH15">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="FI15">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="FJ15">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="FK15">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="FL15">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="FM15">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="FN15">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:171">
@@ -9537,511 +9537,511 @@
         <v>360</v>
       </c>
       <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>23</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>26</v>
+      </c>
+      <c r="L16">
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <v>31</v>
+      </c>
+      <c r="N16">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>40</v>
+      </c>
+      <c r="P16">
+        <v>35</v>
+      </c>
+      <c r="Q16">
+        <v>42</v>
+      </c>
+      <c r="R16">
+        <v>49</v>
+      </c>
+      <c r="S16">
+        <v>28</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16">
+        <v>30</v>
+      </c>
+      <c r="V16">
+        <v>39</v>
+      </c>
+      <c r="W16">
+        <v>37</v>
+      </c>
+      <c r="X16">
+        <v>33</v>
+      </c>
+      <c r="Y16">
+        <v>35</v>
+      </c>
+      <c r="Z16">
+        <v>35</v>
+      </c>
+      <c r="AA16">
+        <v>31</v>
+      </c>
+      <c r="AB16">
+        <v>30</v>
+      </c>
+      <c r="AC16">
+        <v>22</v>
+      </c>
+      <c r="AD16">
+        <v>29</v>
+      </c>
+      <c r="AE16">
+        <v>31</v>
+      </c>
+      <c r="AF16">
+        <v>31</v>
+      </c>
+      <c r="AG16">
+        <v>27</v>
+      </c>
+      <c r="AH16">
+        <v>32</v>
+      </c>
+      <c r="AI16">
+        <v>27</v>
+      </c>
+      <c r="AJ16">
+        <v>30</v>
+      </c>
+      <c r="AK16">
+        <v>26</v>
+      </c>
+      <c r="AL16">
+        <v>30</v>
+      </c>
+      <c r="AM16">
+        <v>28</v>
+      </c>
+      <c r="AN16">
+        <v>25</v>
+      </c>
+      <c r="AO16">
+        <v>24</v>
+      </c>
+      <c r="AP16">
+        <v>26</v>
+      </c>
+      <c r="AQ16">
+        <v>21</v>
+      </c>
+      <c r="AR16">
+        <v>25</v>
+      </c>
+      <c r="AS16">
+        <v>23</v>
+      </c>
+      <c r="AT16">
+        <v>24</v>
+      </c>
+      <c r="AU16">
+        <v>23</v>
+      </c>
+      <c r="AV16">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="AW16">
+        <v>24</v>
+      </c>
+      <c r="AX16">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="AY16">
+        <v>19</v>
+      </c>
+      <c r="AZ16">
+        <v>22</v>
+      </c>
+      <c r="BA16">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="BB16">
+        <v>20</v>
+      </c>
+      <c r="BC16">
+        <v>21</v>
+      </c>
+      <c r="BD16">
         <v>19</v>
       </c>
-      <c r="F16">
+      <c r="BE16">
+        <v>21</v>
+      </c>
+      <c r="BF16">
+        <v>20</v>
+      </c>
+      <c r="BG16">
+        <v>22</v>
+      </c>
+      <c r="BH16">
+        <v>22</v>
+      </c>
+      <c r="BI16">
+        <v>20</v>
+      </c>
+      <c r="BJ16">
+        <v>22</v>
+      </c>
+      <c r="BK16">
+        <v>21</v>
+      </c>
+      <c r="BL16">
+        <v>21</v>
+      </c>
+      <c r="BM16">
+        <v>19</v>
+      </c>
+      <c r="BN16">
+        <v>19</v>
+      </c>
+      <c r="BO16">
+        <v>19</v>
+      </c>
+      <c r="BP16">
+        <v>18</v>
+      </c>
+      <c r="BQ16">
+        <v>21</v>
+      </c>
+      <c r="BR16">
+        <v>20</v>
+      </c>
+      <c r="BS16">
+        <v>23</v>
+      </c>
+      <c r="BT16">
+        <v>16</v>
+      </c>
+      <c r="BU16">
+        <v>18</v>
+      </c>
+      <c r="BV16">
+        <v>18</v>
+      </c>
+      <c r="BW16">
+        <v>25</v>
+      </c>
+      <c r="BX16">
+        <v>18</v>
+      </c>
+      <c r="BY16">
+        <v>16</v>
+      </c>
+      <c r="BZ16">
+        <v>20</v>
+      </c>
+      <c r="CA16">
+        <v>17</v>
+      </c>
+      <c r="CB16">
+        <v>17</v>
+      </c>
+      <c r="CC16">
+        <v>30</v>
+      </c>
+      <c r="CD16">
+        <v>22</v>
+      </c>
+      <c r="CE16">
+        <v>20</v>
+      </c>
+      <c r="CF16">
+        <v>28</v>
+      </c>
+      <c r="CG16">
+        <v>19</v>
+      </c>
+      <c r="CH16">
+        <v>19</v>
+      </c>
+      <c r="CI16">
+        <v>18</v>
+      </c>
+      <c r="CJ16">
+        <v>19</v>
+      </c>
+      <c r="CK16">
+        <v>18</v>
+      </c>
+      <c r="CL16">
+        <v>18</v>
+      </c>
+      <c r="CM16">
+        <v>21</v>
+      </c>
+      <c r="CN16">
+        <v>17</v>
+      </c>
+      <c r="CO16">
+        <v>18</v>
+      </c>
+      <c r="CP16">
+        <v>16</v>
+      </c>
+      <c r="CQ16">
+        <v>19</v>
+      </c>
+      <c r="CR16">
+        <v>16</v>
+      </c>
+      <c r="CS16">
+        <v>21</v>
+      </c>
+      <c r="CT16">
+        <v>18</v>
+      </c>
+      <c r="CU16">
+        <v>13</v>
+      </c>
+      <c r="CV16">
+        <v>15</v>
+      </c>
+      <c r="CW16">
+        <v>19</v>
+      </c>
+      <c r="CX16">
+        <v>18</v>
+      </c>
+      <c r="CY16">
+        <v>20</v>
+      </c>
+      <c r="CZ16">
         <v>14</v>
       </c>
-      <c r="G16">
-        <v>22</v>
-      </c>
-      <c r="H16">
+      <c r="DA16">
+        <v>11</v>
+      </c>
+      <c r="DB16">
+        <v>12</v>
+      </c>
+      <c r="DC16">
+        <v>14</v>
+      </c>
+      <c r="DD16">
+        <v>20</v>
+      </c>
+      <c r="DE16">
+        <v>21</v>
+      </c>
+      <c r="DF16">
+        <v>19</v>
+      </c>
+      <c r="DG16">
+        <v>15</v>
+      </c>
+      <c r="DH16">
+        <v>17</v>
+      </c>
+      <c r="DI16">
+        <v>12</v>
+      </c>
+      <c r="DJ16">
+        <v>15</v>
+      </c>
+      <c r="DK16">
+        <v>15</v>
+      </c>
+      <c r="DL16">
+        <v>15</v>
+      </c>
+      <c r="DM16">
         <v>18</v>
       </c>
-      <c r="I16">
+      <c r="DN16">
+        <v>15</v>
+      </c>
+      <c r="DO16">
+        <v>16</v>
+      </c>
+      <c r="DP16">
+        <v>13</v>
+      </c>
+      <c r="DQ16">
+        <v>14</v>
+      </c>
+      <c r="DR16">
+        <v>14</v>
+      </c>
+      <c r="DS16">
+        <v>12</v>
+      </c>
+      <c r="DT16">
+        <v>15</v>
+      </c>
+      <c r="DU16">
+        <v>18</v>
+      </c>
+      <c r="DV16">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="DW16">
+        <v>11</v>
+      </c>
+      <c r="DX16">
+        <v>14</v>
+      </c>
+      <c r="DY16">
+        <v>12</v>
+      </c>
+      <c r="DZ16">
+        <v>6</v>
+      </c>
+      <c r="EA16">
+        <v>12</v>
+      </c>
+      <c r="EB16">
+        <v>13</v>
+      </c>
+      <c r="EC16">
+        <v>10</v>
+      </c>
+      <c r="ED16">
+        <v>13</v>
+      </c>
+      <c r="EE16">
+        <v>11</v>
+      </c>
+      <c r="EF16">
+        <v>12</v>
+      </c>
+      <c r="EG16">
+        <v>14</v>
+      </c>
+      <c r="EH16">
+        <v>11</v>
+      </c>
+      <c r="EI16">
+        <v>18</v>
+      </c>
+      <c r="EJ16">
+        <v>10</v>
+      </c>
+      <c r="EK16">
+        <v>9</v>
+      </c>
+      <c r="EL16">
+        <v>10</v>
+      </c>
+      <c r="EM16">
+        <v>10</v>
+      </c>
+      <c r="EN16">
+        <v>15</v>
+      </c>
+      <c r="EO16">
+        <v>12</v>
+      </c>
+      <c r="EP16">
+        <v>9</v>
+      </c>
+      <c r="EQ16">
         <v>8</v>
       </c>
-      <c r="K16">
+      <c r="ER16">
+        <v>13</v>
+      </c>
+      <c r="ES16">
+        <v>10</v>
+      </c>
+      <c r="ET16">
+        <v>9</v>
+      </c>
+      <c r="EU16">
         <v>12</v>
       </c>
-      <c r="L16">
-        <v>16</v>
-      </c>
-      <c r="M16">
+      <c r="EV16">
+        <v>10</v>
+      </c>
+      <c r="EW16">
+        <v>12</v>
+      </c>
+      <c r="EX16">
         <v>15</v>
       </c>
-      <c r="N16">
-        <v>16</v>
-      </c>
-      <c r="O16">
-        <v>20</v>
-      </c>
-      <c r="P16">
-        <v>15</v>
-      </c>
-      <c r="Q16">
-        <v>15</v>
-      </c>
-      <c r="R16">
-        <v>21</v>
-      </c>
-      <c r="S16">
-        <v>15</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="U16">
-        <v>15</v>
-      </c>
-      <c r="V16">
-        <v>19</v>
-      </c>
-      <c r="W16">
-        <v>21</v>
-      </c>
-      <c r="X16">
-        <v>17</v>
-      </c>
-      <c r="Y16">
-        <v>15</v>
-      </c>
-      <c r="Z16">
-        <v>13</v>
-      </c>
-      <c r="AA16">
+      <c r="EY16">
+        <v>11</v>
+      </c>
+      <c r="EZ16">
+        <v>9</v>
+      </c>
+      <c r="FA16">
+        <v>10</v>
+      </c>
+      <c r="FB16">
+        <v>10</v>
+      </c>
+      <c r="FC16">
+        <v>9</v>
+      </c>
+      <c r="FD16">
+        <v>9</v>
+      </c>
+      <c r="FE16">
         <v>12</v>
       </c>
-      <c r="AB16">
+      <c r="FF16">
+        <v>7</v>
+      </c>
+      <c r="FG16">
+        <v>5</v>
+      </c>
+      <c r="FH16">
+        <v>10</v>
+      </c>
+      <c r="FI16">
         <v>14</v>
       </c>
-      <c r="AC16">
-        <v>13</v>
-      </c>
-      <c r="AD16">
-        <v>14</v>
-      </c>
-      <c r="AE16">
-        <v>16</v>
-      </c>
-      <c r="AF16">
-        <v>14</v>
-      </c>
-      <c r="AG16">
-        <v>13</v>
-      </c>
-      <c r="AH16">
-        <v>13</v>
-      </c>
-      <c r="AI16">
+      <c r="FJ16">
+        <v>9</v>
+      </c>
+      <c r="FK16">
+        <v>8</v>
+      </c>
+      <c r="FL16">
+        <v>10</v>
+      </c>
+      <c r="FM16">
+        <v>6</v>
+      </c>
+      <c r="FN16">
         <v>11</v>
-      </c>
-      <c r="AJ16">
-        <v>15</v>
-      </c>
-      <c r="AK16">
-        <v>12</v>
-      </c>
-      <c r="AL16">
-        <v>13</v>
-      </c>
-      <c r="AM16">
-        <v>12</v>
-      </c>
-      <c r="AN16">
-        <v>11</v>
-      </c>
-      <c r="AO16">
-        <v>12</v>
-      </c>
-      <c r="AP16">
-        <v>13</v>
-      </c>
-      <c r="AQ16">
-        <v>10</v>
-      </c>
-      <c r="AR16">
-        <v>8</v>
-      </c>
-      <c r="AS16">
-        <v>13</v>
-      </c>
-      <c r="AT16">
-        <v>7</v>
-      </c>
-      <c r="AU16">
-        <v>8</v>
-      </c>
-      <c r="AV16">
-        <v>9</v>
-      </c>
-      <c r="AW16">
-        <v>7</v>
-      </c>
-      <c r="AX16">
-        <v>6</v>
-      </c>
-      <c r="AY16">
-        <v>7</v>
-      </c>
-      <c r="AZ16">
-        <v>6</v>
-      </c>
-      <c r="BA16">
-        <v>7</v>
-      </c>
-      <c r="BB16">
-        <v>8</v>
-      </c>
-      <c r="BC16">
-        <v>6</v>
-      </c>
-      <c r="BD16">
-        <v>7</v>
-      </c>
-      <c r="BE16">
-        <v>8</v>
-      </c>
-      <c r="BF16">
-        <v>7</v>
-      </c>
-      <c r="BG16">
-        <v>6</v>
-      </c>
-      <c r="BH16">
-        <v>5</v>
-      </c>
-      <c r="BI16">
-        <v>10</v>
-      </c>
-      <c r="BJ16">
-        <v>8</v>
-      </c>
-      <c r="BK16">
-        <v>5</v>
-      </c>
-      <c r="BL16">
-        <v>6</v>
-      </c>
-      <c r="BM16">
-        <v>5</v>
-      </c>
-      <c r="BN16">
-        <v>8</v>
-      </c>
-      <c r="BO16">
-        <v>8</v>
-      </c>
-      <c r="BP16">
-        <v>6</v>
-      </c>
-      <c r="BQ16">
-        <v>8</v>
-      </c>
-      <c r="BR16">
-        <v>6</v>
-      </c>
-      <c r="BS16">
-        <v>6</v>
-      </c>
-      <c r="BT16">
-        <v>5</v>
-      </c>
-      <c r="BU16">
-        <v>7</v>
-      </c>
-      <c r="BV16">
-        <v>8</v>
-      </c>
-      <c r="BW16">
-        <v>6</v>
-      </c>
-      <c r="BX16">
-        <v>6</v>
-      </c>
-      <c r="BY16">
-        <v>6</v>
-      </c>
-      <c r="BZ16">
-        <v>6</v>
-      </c>
-      <c r="CA16">
-        <v>10</v>
-      </c>
-      <c r="CB16">
-        <v>9</v>
-      </c>
-      <c r="CC16">
-        <v>7</v>
-      </c>
-      <c r="CD16">
-        <v>5</v>
-      </c>
-      <c r="CE16">
-        <v>8</v>
-      </c>
-      <c r="CF16">
-        <v>9</v>
-      </c>
-      <c r="CG16">
-        <v>7</v>
-      </c>
-      <c r="CH16">
-        <v>5</v>
-      </c>
-      <c r="CI16">
-        <v>6</v>
-      </c>
-      <c r="CJ16">
-        <v>6</v>
-      </c>
-      <c r="CK16">
-        <v>5</v>
-      </c>
-      <c r="CL16">
-        <v>6</v>
-      </c>
-      <c r="CM16">
-        <v>4</v>
-      </c>
-      <c r="CN16">
-        <v>7</v>
-      </c>
-      <c r="CO16">
-        <v>8</v>
-      </c>
-      <c r="CP16">
-        <v>3</v>
-      </c>
-      <c r="CQ16">
-        <v>6</v>
-      </c>
-      <c r="CR16">
-        <v>7</v>
-      </c>
-      <c r="CS16">
-        <v>6</v>
-      </c>
-      <c r="CT16">
-        <v>4</v>
-      </c>
-      <c r="CU16">
-        <v>4</v>
-      </c>
-      <c r="CV16">
-        <v>5</v>
-      </c>
-      <c r="CW16">
-        <v>8</v>
-      </c>
-      <c r="CX16">
-        <v>5</v>
-      </c>
-      <c r="CY16">
-        <v>4</v>
-      </c>
-      <c r="CZ16">
-        <v>6</v>
-      </c>
-      <c r="DA16">
-        <v>4</v>
-      </c>
-      <c r="DB16">
-        <v>4</v>
-      </c>
-      <c r="DC16">
-        <v>3</v>
-      </c>
-      <c r="DD16">
-        <v>8</v>
-      </c>
-      <c r="DE16">
-        <v>6</v>
-      </c>
-      <c r="DF16">
-        <v>5</v>
-      </c>
-      <c r="DG16">
-        <v>4</v>
-      </c>
-      <c r="DH16">
-        <v>3</v>
-      </c>
-      <c r="DI16">
-        <v>4</v>
-      </c>
-      <c r="DJ16">
-        <v>3</v>
-      </c>
-      <c r="DK16">
-        <v>3</v>
-      </c>
-      <c r="DL16">
-        <v>4</v>
-      </c>
-      <c r="DM16">
-        <v>6</v>
-      </c>
-      <c r="DN16">
-        <v>5</v>
-      </c>
-      <c r="DO16">
-        <v>4</v>
-      </c>
-      <c r="DP16">
-        <v>3</v>
-      </c>
-      <c r="DQ16">
-        <v>5</v>
-      </c>
-      <c r="DR16">
-        <v>3</v>
-      </c>
-      <c r="DS16">
-        <v>4</v>
-      </c>
-      <c r="DT16">
-        <v>4</v>
-      </c>
-      <c r="DU16">
-        <v>6</v>
-      </c>
-      <c r="DV16">
-        <v>3</v>
-      </c>
-      <c r="DW16">
-        <v>3</v>
-      </c>
-      <c r="DX16">
-        <v>4</v>
-      </c>
-      <c r="DY16">
-        <v>4</v>
-      </c>
-      <c r="DZ16">
-        <v>4</v>
-      </c>
-      <c r="EA16">
-        <v>2</v>
-      </c>
-      <c r="EB16">
-        <v>4</v>
-      </c>
-      <c r="EC16">
-        <v>3</v>
-      </c>
-      <c r="ED16">
-        <v>3</v>
-      </c>
-      <c r="EE16">
-        <v>4</v>
-      </c>
-      <c r="EF16">
-        <v>4</v>
-      </c>
-      <c r="EG16">
-        <v>3</v>
-      </c>
-      <c r="EH16">
-        <v>1</v>
-      </c>
-      <c r="EI16">
-        <v>4</v>
-      </c>
-      <c r="EJ16">
-        <v>2</v>
-      </c>
-      <c r="EK16">
-        <v>1</v>
-      </c>
-      <c r="EL16">
-        <v>2</v>
-      </c>
-      <c r="EM16">
-        <v>3</v>
-      </c>
-      <c r="EN16">
-        <v>4</v>
-      </c>
-      <c r="EO16">
-        <v>2</v>
-      </c>
-      <c r="EP16">
-        <v>1</v>
-      </c>
-      <c r="EQ16">
-        <v>3</v>
-      </c>
-      <c r="ER16">
-        <v>1</v>
-      </c>
-      <c r="ES16">
-        <v>3</v>
-      </c>
-      <c r="ET16">
-        <v>3</v>
-      </c>
-      <c r="EU16">
-        <v>3</v>
-      </c>
-      <c r="EV16">
-        <v>2</v>
-      </c>
-      <c r="EW16">
-        <v>4</v>
-      </c>
-      <c r="EX16">
-        <v>4</v>
-      </c>
-      <c r="EY16">
-        <v>3</v>
-      </c>
-      <c r="EZ16">
-        <v>3</v>
-      </c>
-      <c r="FA16">
-        <v>3</v>
-      </c>
-      <c r="FB16">
-        <v>4</v>
-      </c>
-      <c r="FC16">
-        <v>4</v>
-      </c>
-      <c r="FD16">
-        <v>4</v>
-      </c>
-      <c r="FE16">
-        <v>2</v>
-      </c>
-      <c r="FF16">
-        <v>2</v>
-      </c>
-      <c r="FG16">
-        <v>3</v>
-      </c>
-      <c r="FH16">
-        <v>3</v>
-      </c>
-      <c r="FI16">
-        <v>1</v>
-      </c>
-      <c r="FJ16">
-        <v>3</v>
-      </c>
-      <c r="FK16">
-        <v>3</v>
-      </c>
-      <c r="FL16">
-        <v>2</v>
-      </c>
-      <c r="FM16">
-        <v>2</v>
-      </c>
-      <c r="FN16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:170">
@@ -10049,490 +10049,490 @@
         <v>361</v>
       </c>
       <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>31</v>
+      </c>
+      <c r="N17">
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>35</v>
+      </c>
+      <c r="Q17">
+        <v>42</v>
+      </c>
+      <c r="R17">
+        <v>49</v>
+      </c>
+      <c r="S17">
+        <v>28</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>30</v>
+      </c>
+      <c r="V17">
+        <v>39</v>
+      </c>
+      <c r="W17">
+        <v>37</v>
+      </c>
+      <c r="X17">
+        <v>33</v>
+      </c>
+      <c r="Y17">
+        <v>35</v>
+      </c>
+      <c r="Z17">
+        <v>35</v>
+      </c>
+      <c r="AA17">
+        <v>31</v>
+      </c>
+      <c r="AB17">
+        <v>30</v>
+      </c>
+      <c r="AC17">
+        <v>22</v>
+      </c>
+      <c r="AD17">
+        <v>29</v>
+      </c>
+      <c r="AE17">
+        <v>31</v>
+      </c>
+      <c r="AF17">
+        <v>31</v>
+      </c>
+      <c r="AG17">
+        <v>27</v>
+      </c>
+      <c r="AH17">
+        <v>32</v>
+      </c>
+      <c r="AI17">
+        <v>27</v>
+      </c>
+      <c r="AJ17">
+        <v>30</v>
+      </c>
+      <c r="AK17">
+        <v>26</v>
+      </c>
+      <c r="AL17">
+        <v>30</v>
+      </c>
+      <c r="AM17">
+        <v>28</v>
+      </c>
+      <c r="AN17">
+        <v>25</v>
+      </c>
+      <c r="AO17">
+        <v>24</v>
+      </c>
+      <c r="AP17">
+        <v>26</v>
+      </c>
+      <c r="AQ17">
+        <v>21</v>
+      </c>
+      <c r="AR17">
+        <v>25</v>
+      </c>
+      <c r="AS17">
+        <v>23</v>
+      </c>
+      <c r="AT17">
+        <v>24</v>
+      </c>
+      <c r="AU17">
+        <v>23</v>
+      </c>
+      <c r="AV17">
         <v>19</v>
       </c>
-      <c r="C17">
+      <c r="AW17">
+        <v>24</v>
+      </c>
+      <c r="AX17">
+        <v>17</v>
+      </c>
+      <c r="AY17">
+        <v>20</v>
+      </c>
+      <c r="AZ17">
+        <v>20</v>
+      </c>
+      <c r="BA17">
         <v>19</v>
       </c>
-      <c r="D17">
+      <c r="BB17">
+        <v>17</v>
+      </c>
+      <c r="BC17">
+        <v>20</v>
+      </c>
+      <c r="BD17">
+        <v>19</v>
+      </c>
+      <c r="BE17">
+        <v>20</v>
+      </c>
+      <c r="BF17">
         <v>21</v>
       </c>
-      <c r="E17">
+      <c r="BG17">
+        <v>21</v>
+      </c>
+      <c r="BH17">
+        <v>18</v>
+      </c>
+      <c r="BI17">
+        <v>21</v>
+      </c>
+      <c r="BJ17">
+        <v>15</v>
+      </c>
+      <c r="BK17">
+        <v>21</v>
+      </c>
+      <c r="BL17">
+        <v>17</v>
+      </c>
+      <c r="BM17">
         <v>19</v>
       </c>
-      <c r="F17">
+      <c r="BN17">
+        <v>20</v>
+      </c>
+      <c r="BO17">
+        <v>18</v>
+      </c>
+      <c r="BP17">
+        <v>18</v>
+      </c>
+      <c r="BQ17">
+        <v>17</v>
+      </c>
+      <c r="BR17">
+        <v>17</v>
+      </c>
+      <c r="BS17">
+        <v>17</v>
+      </c>
+      <c r="BT17">
         <v>14</v>
       </c>
-      <c r="G17">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17">
+      <c r="BU17">
+        <v>16</v>
+      </c>
+      <c r="BV17">
+        <v>13</v>
+      </c>
+      <c r="BW17">
+        <v>11</v>
+      </c>
+      <c r="BX17">
+        <v>16</v>
+      </c>
+      <c r="BY17">
+        <v>12</v>
+      </c>
+      <c r="BZ17">
+        <v>16</v>
+      </c>
+      <c r="CA17">
+        <v>13</v>
+      </c>
+      <c r="CB17">
+        <v>13</v>
+      </c>
+      <c r="CC17">
+        <v>13</v>
+      </c>
+      <c r="CD17">
+        <v>15</v>
+      </c>
+      <c r="CE17">
+        <v>14</v>
+      </c>
+      <c r="CF17">
+        <v>13</v>
+      </c>
+      <c r="CG17">
+        <v>11</v>
+      </c>
+      <c r="CH17">
+        <v>12</v>
+      </c>
+      <c r="CI17">
+        <v>11</v>
+      </c>
+      <c r="CJ17">
+        <v>10</v>
+      </c>
+      <c r="CK17">
+        <v>16</v>
+      </c>
+      <c r="CL17">
+        <v>9</v>
+      </c>
+      <c r="CM17">
+        <v>15</v>
+      </c>
+      <c r="CN17">
+        <v>11</v>
+      </c>
+      <c r="CO17">
+        <v>10</v>
+      </c>
+      <c r="CP17">
+        <v>10</v>
+      </c>
+      <c r="CQ17">
+        <v>12</v>
+      </c>
+      <c r="CR17">
+        <v>7</v>
+      </c>
+      <c r="CS17">
+        <v>11</v>
+      </c>
+      <c r="CT17">
+        <v>10</v>
+      </c>
+      <c r="CU17">
+        <v>9</v>
+      </c>
+      <c r="CV17">
         <v>8</v>
       </c>
-      <c r="K17">
+      <c r="CW17">
         <v>12</v>
       </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>16</v>
-      </c>
-      <c r="O17">
-        <v>20</v>
-      </c>
-      <c r="P17">
-        <v>15</v>
-      </c>
-      <c r="Q17">
-        <v>15</v>
-      </c>
-      <c r="R17">
-        <v>21</v>
-      </c>
-      <c r="S17">
-        <v>15</v>
-      </c>
-      <c r="T17">
+      <c r="CX17">
+        <v>10</v>
+      </c>
+      <c r="CY17">
+        <v>10</v>
+      </c>
+      <c r="CZ17">
+        <v>11</v>
+      </c>
+      <c r="DA17">
+        <v>7</v>
+      </c>
+      <c r="DB17">
+        <v>5</v>
+      </c>
+      <c r="DC17">
+        <v>7</v>
+      </c>
+      <c r="DD17">
+        <v>9</v>
+      </c>
+      <c r="DE17">
+        <v>8</v>
+      </c>
+      <c r="DF17">
+        <v>10</v>
+      </c>
+      <c r="DG17">
+        <v>8</v>
+      </c>
+      <c r="DH17">
+        <v>5</v>
+      </c>
+      <c r="DI17">
+        <v>4</v>
+      </c>
+      <c r="DJ17">
+        <v>4</v>
+      </c>
+      <c r="DK17">
+        <v>7</v>
+      </c>
+      <c r="DL17">
+        <v>6</v>
+      </c>
+      <c r="DM17">
+        <v>6</v>
+      </c>
+      <c r="DN17">
+        <v>6</v>
+      </c>
+      <c r="DO17">
+        <v>6</v>
+      </c>
+      <c r="DP17">
         <v>3</v>
       </c>
-      <c r="U17">
-        <v>15</v>
-      </c>
-      <c r="V17">
-        <v>19</v>
-      </c>
-      <c r="W17">
-        <v>21</v>
-      </c>
-      <c r="X17">
-        <v>17</v>
-      </c>
-      <c r="Y17">
-        <v>15</v>
-      </c>
-      <c r="Z17">
-        <v>13</v>
-      </c>
-      <c r="AA17">
-        <v>12</v>
-      </c>
-      <c r="AB17">
-        <v>14</v>
-      </c>
-      <c r="AC17">
-        <v>13</v>
-      </c>
-      <c r="AD17">
-        <v>14</v>
-      </c>
-      <c r="AE17">
-        <v>16</v>
-      </c>
-      <c r="AF17">
-        <v>14</v>
-      </c>
-      <c r="AG17">
-        <v>13</v>
-      </c>
-      <c r="AH17">
-        <v>13</v>
-      </c>
-      <c r="AI17">
-        <v>11</v>
-      </c>
-      <c r="AJ17">
-        <v>15</v>
-      </c>
-      <c r="AK17">
-        <v>12</v>
-      </c>
-      <c r="AL17">
-        <v>13</v>
-      </c>
-      <c r="AM17">
-        <v>12</v>
-      </c>
-      <c r="AN17">
-        <v>11</v>
-      </c>
-      <c r="AO17">
-        <v>12</v>
-      </c>
-      <c r="AP17">
-        <v>13</v>
-      </c>
-      <c r="AQ17">
-        <v>10</v>
-      </c>
-      <c r="AR17">
-        <v>8</v>
-      </c>
-      <c r="AS17">
-        <v>13</v>
-      </c>
-      <c r="AT17">
-        <v>7</v>
-      </c>
-      <c r="AU17">
-        <v>8</v>
-      </c>
-      <c r="AV17">
-        <v>9</v>
-      </c>
-      <c r="AW17">
-        <v>7</v>
-      </c>
-      <c r="AX17">
+      <c r="DQ17">
+        <v>4</v>
+      </c>
+      <c r="DR17">
+        <v>4</v>
+      </c>
+      <c r="DS17">
         <v>6</v>
       </c>
-      <c r="AY17">
+      <c r="DT17">
         <v>4</v>
       </c>
-      <c r="AZ17">
-        <v>6</v>
-      </c>
-      <c r="BA17">
-        <v>8</v>
-      </c>
-      <c r="BB17">
-        <v>7</v>
-      </c>
-      <c r="BC17">
-        <v>5</v>
-      </c>
-      <c r="BD17">
-        <v>6</v>
-      </c>
-      <c r="BE17">
-        <v>8</v>
-      </c>
-      <c r="BF17">
-        <v>7</v>
-      </c>
-      <c r="BG17">
-        <v>8</v>
-      </c>
-      <c r="BH17">
-        <v>6</v>
-      </c>
-      <c r="BI17">
-        <v>5</v>
-      </c>
-      <c r="BJ17">
-        <v>5</v>
-      </c>
-      <c r="BK17">
-        <v>3</v>
-      </c>
-      <c r="BL17">
-        <v>6</v>
-      </c>
-      <c r="BM17">
-        <v>3</v>
-      </c>
-      <c r="BN17">
-        <v>7</v>
-      </c>
-      <c r="BO17">
-        <v>3</v>
-      </c>
-      <c r="BP17">
-        <v>5</v>
-      </c>
-      <c r="BQ17">
+      <c r="DU17">
         <v>4</v>
       </c>
-      <c r="BR17">
+      <c r="DV17">
         <v>4</v>
       </c>
-      <c r="BS17">
-        <v>6</v>
-      </c>
-      <c r="BT17">
-        <v>3</v>
-      </c>
-      <c r="BU17">
-        <v>5</v>
-      </c>
-      <c r="BV17">
-        <v>3</v>
-      </c>
-      <c r="BW17">
+      <c r="DW17">
         <v>4</v>
       </c>
-      <c r="BX17">
+      <c r="DX17">
         <v>4</v>
       </c>
-      <c r="BY17">
-        <v>3</v>
-      </c>
-      <c r="BZ17">
+      <c r="DY17">
         <v>4</v>
       </c>
-      <c r="CA17">
-        <v>5</v>
-      </c>
-      <c r="CB17">
-        <v>3</v>
-      </c>
-      <c r="CC17">
-        <v>3</v>
-      </c>
-      <c r="CD17">
-        <v>4</v>
-      </c>
-      <c r="CE17">
-        <v>6</v>
-      </c>
-      <c r="CF17">
-        <v>3</v>
-      </c>
-      <c r="CG17">
-        <v>3</v>
-      </c>
-      <c r="CH17">
-        <v>4</v>
-      </c>
-      <c r="CI17">
-        <v>4</v>
-      </c>
-      <c r="CJ17">
-        <v>4</v>
-      </c>
-      <c r="CK17">
-        <v>4</v>
-      </c>
-      <c r="CL17">
-        <v>4</v>
-      </c>
-      <c r="CM17">
-        <v>4</v>
-      </c>
-      <c r="CN17">
-        <v>5</v>
-      </c>
-      <c r="CO17">
-        <v>3</v>
-      </c>
-      <c r="CP17">
-        <v>3</v>
-      </c>
-      <c r="CQ17">
-        <v>3</v>
-      </c>
-      <c r="CR17">
-        <v>4</v>
-      </c>
-      <c r="CS17">
-        <v>3</v>
-      </c>
-      <c r="CT17">
-        <v>3</v>
-      </c>
-      <c r="CU17">
-        <v>4</v>
-      </c>
-      <c r="CV17">
-        <v>3</v>
-      </c>
-      <c r="CW17">
+      <c r="DZ17">
         <v>2</v>
-      </c>
-      <c r="CX17">
-        <v>5</v>
-      </c>
-      <c r="CY17">
-        <v>3</v>
-      </c>
-      <c r="CZ17">
-        <v>3</v>
-      </c>
-      <c r="DA17">
-        <v>1</v>
-      </c>
-      <c r="DB17">
-        <v>1</v>
-      </c>
-      <c r="DC17">
-        <v>2</v>
-      </c>
-      <c r="DD17">
-        <v>2</v>
-      </c>
-      <c r="DE17">
-        <v>2</v>
-      </c>
-      <c r="DF17">
-        <v>2</v>
-      </c>
-      <c r="DG17">
-        <v>2</v>
-      </c>
-      <c r="DH17">
-        <v>3</v>
-      </c>
-      <c r="DI17">
-        <v>2</v>
-      </c>
-      <c r="DJ17">
-        <v>1</v>
-      </c>
-      <c r="DK17">
-        <v>1</v>
-      </c>
-      <c r="DL17">
-        <v>1</v>
-      </c>
-      <c r="DM17">
-        <v>1</v>
-      </c>
-      <c r="DN17">
-        <v>3</v>
-      </c>
-      <c r="DO17">
-        <v>2</v>
-      </c>
-      <c r="DP17">
-        <v>1</v>
-      </c>
-      <c r="DQ17">
-        <v>2</v>
-      </c>
-      <c r="DR17">
-        <v>0</v>
-      </c>
-      <c r="DS17">
-        <v>3</v>
-      </c>
-      <c r="DT17">
-        <v>2</v>
-      </c>
-      <c r="DU17">
-        <v>0</v>
-      </c>
-      <c r="DV17">
-        <v>3</v>
-      </c>
-      <c r="DW17">
-        <v>2</v>
-      </c>
-      <c r="DX17">
-        <v>1</v>
-      </c>
-      <c r="DY17">
-        <v>1</v>
-      </c>
-      <c r="DZ17">
-        <v>1</v>
       </c>
       <c r="EA17">
         <v>3</v>
       </c>
       <c r="EB17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EC17">
         <v>3</v>
       </c>
       <c r="ED17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EE17">
+        <v>3</v>
+      </c>
+      <c r="EF17">
         <v>2</v>
       </c>
-      <c r="EF17">
-        <v>1</v>
-      </c>
       <c r="EG17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EH17">
         <v>2</v>
       </c>
       <c r="EI17">
+        <v>3</v>
+      </c>
+      <c r="EJ17">
+        <v>4</v>
+      </c>
+      <c r="EK17">
+        <v>3</v>
+      </c>
+      <c r="EL17">
         <v>2</v>
       </c>
-      <c r="EJ17">
-        <v>0</v>
-      </c>
-      <c r="EK17">
-        <v>0</v>
-      </c>
-      <c r="EL17">
-        <v>0</v>
-      </c>
       <c r="EM17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EP17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EQ17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="ER17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ES17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ET17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EU17">
         <v>1</v>
       </c>
       <c r="EV17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EW17">
         <v>1</v>
       </c>
       <c r="EX17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EY17">
         <v>1</v>
       </c>
       <c r="EZ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FA17">
         <v>2</v>
       </c>
       <c r="FB17">
+        <v>2</v>
+      </c>
+      <c r="FC17">
+        <v>3</v>
+      </c>
+      <c r="FD17">
         <v>1</v>
-      </c>
-      <c r="FC17">
-        <v>1</v>
-      </c>
-      <c r="FD17">
-        <v>0</v>
       </c>
       <c r="FE17">
         <v>1</v>
       </c>
       <c r="FF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH17">
         <v>1</v>
@@ -10541,16 +10541,16 @@
         <v>0</v>
       </c>
       <c r="FJ17">
+        <v>2</v>
+      </c>
+      <c r="FK17">
         <v>1</v>
-      </c>
-      <c r="FK17">
-        <v>0</v>
       </c>
       <c r="FL17">
         <v>1</v>
       </c>
       <c r="FM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN17">
         <v>1</v>
